--- a/publipostage2/0250ngj72/liste_essais_cliniques_identifies_0250ngj72.xlsx
+++ b/publipostage2/0250ngj72/liste_essais_cliniques_identifies_0250ngj72.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>status_label</t>
+          <t>statut_label</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">

--- a/publipostage2/0250ngj72/liste_essais_cliniques_identifies_0250ngj72.xlsx
+++ b/publipostage2/0250ngj72/liste_essais_cliniques_identifies_0250ngj72.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L103"/>
+  <dimension ref="A1:M103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,50 +446,55 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>statut_name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>CTIS</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>intervention_type</t>
         </is>
@@ -508,32 +513,37 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>NCT00188071</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
         <is>
           <t>2003</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Postoperative Pain After Medical Abortion Under Local Anesthesia : a Prospective and Randomized Trial Comparing Several Analgesic Regimen</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="b">
         <v>0</v>
       </c>
       <c r="K2" t="b">
         <v>0</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -552,36 +562,41 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>NCT00188058</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
         <is>
           <t>2006</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Comparison of Two Strategies for Setting Positive End-Expiratory Pressure in Acute Lung Injury/ Acute Respiratory Distress Syndrome (ExPress Study).</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>ExPress</t>
         </is>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
       <c r="J3" t="b">
         <v>0</v>
       </c>
       <c r="K3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -600,32 +615,37 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>NCT00188032</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
         <is>
           <t>2006</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Strategies for Suspected Pulmonary Embolism in Emergency Departments - SPEED Study</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="b">
         <v>0</v>
       </c>
       <c r="K4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -644,32 +664,37 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>NCT00262379</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Multicenter Study, Randomized and Pragmatic, Comparing Two Therapeutic Strategies : Use or Non-use of Epoetin Beta in Patients Infected by Chronic Hepatitis C and Treated by Combination Therapy Peginterferon Alfa-2a Plus Ribavirin</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="b">
         <v>0</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -688,32 +713,37 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>NCT01068886</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>External Pancreatic Duct Stent After Pancreaticoduodenectomy: a Prospective Randomized Multicenter Trial</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="b">
         <v>0</v>
       </c>
       <c r="K6" t="b">
-        <v>1</v>
-      </c>
-      <c r="L6" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -732,36 +762,41 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>NCT01052974</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Perioperative Analgesia by Femoral Perineural Catheter for Femoral Neck Fracture - Study KTcol -</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>KTcol</t>
         </is>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
       <c r="J7" t="b">
         <v>0</v>
       </c>
       <c r="K7" t="b">
-        <v>1</v>
-      </c>
-      <c r="L7" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L7" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -780,36 +815,41 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>NCT00485147</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Study of Human Locomotion With Global Positioning System. Application to Patients With Peripheral Arterial Disease</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>Starter-GPS</t>
         </is>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
       <c r="J8" t="b">
         <v>0</v>
       </c>
       <c r="K8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L8" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -828,36 +868,41 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>NCT00648089</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>ErythroPOietin in Myocardial Infarction</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>EPOMI</t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
       <c r="J9" t="b">
         <v>0</v>
       </c>
       <c r="K9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L9" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -876,36 +921,41 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>NCT01390129</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Remote Ischemic Preconditioning in Aortic Valve Surgery (RIP-Valve)</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>RIP-Valve</t>
         </is>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
       <c r="J10" t="b">
         <v>0</v>
       </c>
       <c r="K10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L10" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -924,32 +974,37 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>NCT01592812</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Investigation of the Arterial Effects of the Veinoplus(r) Stimlator Device.</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="b">
-        <v>1</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="b">
         <v>1</v>
       </c>
       <c r="K11" t="b">
         <v>1</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -968,32 +1023,37 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>NCT01149278</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr">
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
         <is>
           <t>SEPSISPAM</t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
       <c r="J12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="b">
         <v>1</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L12" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1012,32 +1072,37 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>NCT00188019</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Evaluation Des méthodes de dépistage du Paragangliome héréditaire Chez Les Sujets prédisposés génétiquement</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="b">
         <v>0</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1056,36 +1121,41 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>NCT02179411</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Study of the Renal Perfusion in Healthy Volunteers and Renal Transplant Recipients During an Orthostatic Stress</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>ortho_rein</t>
         </is>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
       <c r="J14" t="b">
         <v>0</v>
       </c>
       <c r="K14" t="b">
         <v>0</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1104,36 +1174,41 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>NCT01572961</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Amélioration Des Techniques d'étude de la Micro-cirulation cutanée Chez Des Sujets Sains</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>MICROTEC</t>
         </is>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
       <c r="J15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="b">
         <v>1</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="L15" t="b">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1152,36 +1227,41 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>NCT01549691</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>Assessment of Two Modes of Premedication in Surgery - PREMED Study</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>PREMED</t>
         </is>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
       <c r="J16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="b">
         <v>1</v>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="L16" t="b">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1200,36 +1280,41 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>NCT01390142</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>Remote Ischemic Preconditioning Combined to Local Ischemic Postconditioning in Acute Myocardial Infarction (RIRE-1)</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>RIRE-1</t>
         </is>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
       <c r="J17" t="b">
         <v>0</v>
       </c>
       <c r="K17" t="b">
         <v>0</v>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="L17" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1248,32 +1333,37 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>NCT02003157</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr">
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
         <is>
           <t>HYPNOART</t>
         </is>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
       <c r="J18" t="b">
         <v>0</v>
       </c>
       <c r="K18" t="b">
         <v>0</v>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="L18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1292,36 +1382,41 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>NCT02704247</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>Evaluation of CARDIOSPACE System in Healthy Volunteers for Physiological Research in Space Environment</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>CARDIOSPACE</t>
         </is>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
       <c r="J19" t="b">
         <v>0</v>
       </c>
       <c r="K19" t="b">
         <v>0</v>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="L19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1340,36 +1435,41 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>NCT01300845</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>Prospective, Randomized, Multi-center Trial Aiming at Assessing the Effect of Humidification on the Comfort of the Patient Receiving an Oxygen Therapy.</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>OXYREA</t>
         </is>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
       <c r="J20" t="b">
         <v>0</v>
       </c>
       <c r="K20" t="b">
         <v>0</v>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="L20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1388,36 +1488,41 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>NCT02120144</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>Effect of Observation Plus Imagination of Gait on Stride Variability in Young and Older Adults</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>OBI</t>
         </is>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
       <c r="J21" t="b">
         <v>0</v>
       </c>
       <c r="K21" t="b">
         <v>0</v>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="L21" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1436,36 +1541,41 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>NCT02538120</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>Assessment of the Neurovascular Microcirculatory Response in Diabetes Type 1</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>NEURODIAB1</t>
         </is>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
       <c r="J22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="b">
         <v>1</v>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="L22" t="b">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1484,36 +1594,41 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>NCT02549053</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>Prevalence of Human Papillomavirus in Barrett Esophagus Compared With Controls</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>Barrett</t>
         </is>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
       <c r="J23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="b">
         <v>1</v>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="L23" t="b">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1532,36 +1647,41 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>NCT02086409</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>Dairy Product, Calcium &amp; Vitamin D Supplementation and Cognitive-motor Function</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>GAME-D2</t>
         </is>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
       <c r="J24" t="b">
         <v>0</v>
       </c>
       <c r="K24" t="b">
         <v>0</v>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="L24" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" t="inlineStr">
         <is>
           <t>DIETARY_SUPPLEMENT</t>
         </is>
@@ -1580,36 +1700,41 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>NCT02687659</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>TEMIS: a Pilot Study to Evaluate a Device to Characterize Ambulatory Physical Activity</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>TEMIS</t>
         </is>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
       <c r="J25" t="b">
         <v>0</v>
       </c>
       <c r="K25" t="b">
         <v>0</v>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="L25" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1628,36 +1753,41 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>NCT01426607</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>VASO-AM :Impact of Oral Appliance Therapy on Endothelial Function in Obstructive Sleep Apnea</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>VASO-AM</t>
         </is>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
       <c r="J26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" t="b">
         <v>1</v>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="L26" t="b">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1676,36 +1806,41 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>NCT02704260</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>Endofibrose Vasculaire et génétique</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>GOSSER</t>
         </is>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
       <c r="J27" t="b">
         <v>0</v>
       </c>
       <c r="K27" t="b">
         <v>0</v>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="L27" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>GENETIC</t>
         </is>
@@ -1724,36 +1859,41 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>NCT02072655</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>Impact of Socio-aesthetic Care in the Quality of Life of Patients Treated for Lymphoma During and After Hospitalization</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>CareSSE</t>
         </is>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
       <c r="J28" t="b">
         <v>0</v>
       </c>
       <c r="K28" t="b">
         <v>0</v>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="L28" t="b">
+        <v>0</v>
+      </c>
+      <c r="M28" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1772,36 +1912,41 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>NCT02684149</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>Pain Impact Assessment of the Relational Touch During Arterial Puncture in ICU - TORREA</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>ToRRéa</t>
         </is>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
       <c r="J29" t="b">
         <v>0</v>
       </c>
       <c r="K29" t="b">
         <v>0</v>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="L29" t="b">
+        <v>0</v>
+      </c>
+      <c r="M29" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1820,36 +1965,41 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>NCT02834351</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>Atteinte Tissulaire au Cours de l'ischémie Chronique d'Effort. Validation d'un modèle d'étude du Muscle Sartorius Humain</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>SARTORIUS</t>
         </is>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
       <c r="J30" t="b">
         <v>0</v>
       </c>
       <c r="K30" t="b">
         <v>0</v>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="L30" t="b">
+        <v>0</v>
+      </c>
+      <c r="M30" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1868,36 +2018,41 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>NCT02152176</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>Titration Morphinique autocontrôlée Par le Patient Par un Dispositif mécanique à Usage Unique Versus Administration Par l'infirmière Chez Les Patients Ayant Une Douleur aiguë sévère Aux Urgences.</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>TACIDOU</t>
         </is>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
       <c r="J31" t="b">
         <v>0</v>
       </c>
       <c r="K31" t="b">
         <v>0</v>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="L31" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1916,36 +2071,41 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>NCT02379234</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>SIMulation for HEmofiltration in Intensive caRe Unit</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>SIMHeR</t>
         </is>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
       <c r="J32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" t="b">
         <v>1</v>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="L32" t="b">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1964,36 +2124,41 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>NCT01409694</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>Evaluation d'Une stratégie thérapeutique d'Association médicamenteuse Pour la Prise en Charge de la Maladie d'Alzheimer et Des Maladies apparentées au Stade modéré</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>AD-IDEA</t>
         </is>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
       <c r="J33" t="b">
         <v>0</v>
       </c>
       <c r="K33" t="b">
-        <v>1</v>
-      </c>
-      <c r="L33" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L33" t="b">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2012,36 +2177,41 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>NCT02556658</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>Predicted Level of General Anaesthesia in Hip Fracture Surgery</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>NAPfem</t>
         </is>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
       <c r="J34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" t="b">
         <v>1</v>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="L34" t="b">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2060,32 +2230,37 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>NCT02550275</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr">
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr">
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
         <is>
           <t>COSIMH</t>
         </is>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
       <c r="J35" t="b">
         <v>0</v>
       </c>
       <c r="K35" t="b">
         <v>0</v>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="L35" t="b">
+        <v>0</v>
+      </c>
+      <c r="M35" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -2104,40 +2279,45 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>NCT02302456</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>2014-001748-39</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr">
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>Tranexamic Acid for Preventing Postpartum Haemorrhage Following a Vaginal Delivery: a Multicenter Randomised Double Blind Placebo Controlled Trial</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>TRAAP</t>
         </is>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
       <c r="J36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" t="b">
         <v>1</v>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="L36" t="b">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2156,36 +2336,41 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>NCT02501408</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr">
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>Comparaison du Pied Bionique Proprio-Foot® Versus le Pied Habituel Chez Les amputés Tibiaux</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>PROPRIO-FOOT</t>
         </is>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
       <c r="J37" t="b">
         <v>0</v>
       </c>
       <c r="K37" t="b">
         <v>0</v>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="L37" t="b">
+        <v>0</v>
+      </c>
+      <c r="M37" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2204,36 +2389,41 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>NCT02815956</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr">
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>InteresT And Mechanisms of Percutaneous Posterior tIbial Nerve Stimulation to Prevent pOstoperative Ileus in ColorectAl Surgery: A Preliminary Study</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>pre-TAPIOCA</t>
         </is>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
       <c r="J38" t="b">
         <v>0</v>
       </c>
       <c r="K38" t="b">
         <v>0</v>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="L38" t="b">
+        <v>0</v>
+      </c>
+      <c r="M38" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2252,36 +2442,41 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>NCT02463604</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr">
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>Renal PRotection Against Contrast mEdium-induced nephroPathy in High Risk Patients undErgoing Coronary Angiography</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>PREPARE</t>
         </is>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
       <c r="J39" t="b">
         <v>0</v>
       </c>
       <c r="K39" t="b">
         <v>0</v>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="L39" t="b">
+        <v>0</v>
+      </c>
+      <c r="M39" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -2300,36 +2495,41 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>NCT03070860</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>Glucidic Metabolism, Ossification and Arterial Calcification During PseudoXanthoma Elasticum (PXE)</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>GOCAPXE</t>
         </is>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
       <c r="J40" t="b">
         <v>0</v>
       </c>
       <c r="K40" t="b">
         <v>0</v>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="L40" t="b">
+        <v>0</v>
+      </c>
+      <c r="M40" t="inlineStr">
         <is>
           <t>RADIATION</t>
         </is>
@@ -2348,36 +2548,41 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>NCT02997436</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>Asa Test ; un Nouvel Outil Dans le dépistage du Traitement Par Aspirine ? (This Official Titre is in French and Contains no Spelling Error. English Translation for it Would be : "ASA-test. A New Tool for the Screening of Aspirin Treatment")</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>FirstAMOS</t>
         </is>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
       <c r="J41" t="b">
         <v>0</v>
       </c>
       <c r="K41" t="b">
         <v>0</v>
       </c>
-      <c r="L41" t="inlineStr">
+      <c r="L41" t="b">
+        <v>0</v>
+      </c>
+      <c r="M41" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2396,36 +2601,41 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>NCT02161965</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>The VICTORIA Study (Vascular CalcIfiCation and sTiffness Induced by ORal antIcoAgulation) Comparison Anti-vitamin K Versus Anti-Xa.</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>VICTORIA</t>
         </is>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
       <c r="J42" t="b">
         <v>0</v>
       </c>
       <c r="K42" t="b">
         <v>0</v>
       </c>
-      <c r="L42" t="inlineStr">
+      <c r="L42" t="b">
+        <v>0</v>
+      </c>
+      <c r="M42" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2444,32 +2654,37 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>NCT02134561</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr">
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr">
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
         <is>
           <t>PREHUNT</t>
         </is>
       </c>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
       <c r="J43" t="b">
         <v>0</v>
       </c>
       <c r="K43" t="b">
         <v>0</v>
       </c>
-      <c r="L43" t="inlineStr">
+      <c r="L43" t="b">
+        <v>0</v>
+      </c>
+      <c r="M43" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -2488,36 +2703,41 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>NCT02317003</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr">
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>Physical Exercise Prescription With PEdometeR in General Practice for Patients With Cardiovascular Risk Factors - The PEPPER Pragmatic Randomised Controlled Trial</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>PEPPER</t>
         </is>
       </c>
-      <c r="I44" t="b">
-        <v>1</v>
-      </c>
       <c r="J44" t="b">
         <v>1</v>
       </c>
       <c r="K44" t="b">
         <v>1</v>
       </c>
-      <c r="L44" t="inlineStr">
+      <c r="L44" t="b">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -2536,36 +2756,41 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>NCT02650232</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr">
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>Pilot Study to Evaluate the Somnotouch Device to Quantify Spontaneous Baroreflex Sensitivity in Healthy Subjects and in Patients With Heart Failure</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>SOMNO-BRS</t>
         </is>
       </c>
-      <c r="I45" t="b">
-        <v>0</v>
-      </c>
       <c r="J45" t="b">
         <v>0</v>
       </c>
       <c r="K45" t="b">
         <v>0</v>
       </c>
-      <c r="L45" t="inlineStr">
+      <c r="L45" t="b">
+        <v>0</v>
+      </c>
+      <c r="M45" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -2584,36 +2809,41 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>NCT02878460</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>ORI2 : ORI for hyperOxia Reduction in ICU</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>ORI2</t>
         </is>
       </c>
-      <c r="I46" t="b">
-        <v>0</v>
-      </c>
       <c r="J46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" t="b">
         <v>1</v>
       </c>
-      <c r="L46" t="inlineStr">
+      <c r="L46" t="b">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2632,36 +2862,41 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>NCT02811237</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>Criteria for Hospitalization or Outpatient Management of Patients With Pulmonary Embolism, Hestia Rule Versus Simplified PESI Score : an Open-label Controlled Randomized International Trial (HOME-PE)</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>HOME-PE</t>
         </is>
       </c>
-      <c r="I47" t="b">
-        <v>0</v>
-      </c>
       <c r="J47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47" t="b">
         <v>1</v>
       </c>
-      <c r="L47" t="inlineStr">
+      <c r="L47" t="b">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2680,36 +2915,41 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>NCT03631797</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr">
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>L'Etude préopératoire de la Microcirculation Pour la prédiction Des Complications après Une Chirurgie Cardiaque Sous Circulation Extracorporelle.</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>MONS</t>
         </is>
       </c>
-      <c r="I48" t="b">
-        <v>0</v>
-      </c>
       <c r="J48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" t="b">
         <v>1</v>
       </c>
-      <c r="L48" t="inlineStr">
+      <c r="L48" t="b">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -2728,36 +2968,41 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>NCT02861924</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr">
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>Réponse à l'Application d'Une Pression Locale en Laser Speckle Imaging Locally Applied Pressure-induced Vasodilatation</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>LAV</t>
         </is>
       </c>
-      <c r="I49" t="b">
-        <v>1</v>
-      </c>
       <c r="J49" t="b">
         <v>1</v>
       </c>
       <c r="K49" t="b">
         <v>1</v>
       </c>
-      <c r="L49" t="inlineStr">
+      <c r="L49" t="b">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2776,36 +3021,41 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>NCT03356379</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr">
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>Application de l'oxymétrie Dynamique Pour le Diagnostic Des pièges artériels poplités</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>PETRUS</t>
         </is>
       </c>
-      <c r="I50" t="b">
-        <v>0</v>
-      </c>
       <c r="J50" t="b">
         <v>0</v>
       </c>
       <c r="K50" t="b">
         <v>0</v>
       </c>
-      <c r="L50" t="inlineStr">
+      <c r="L50" t="b">
+        <v>0</v>
+      </c>
+      <c r="M50" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -2824,36 +3074,41 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>NCT02689557</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr">
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>VEINEX : Venous Investigations During Exercise</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>VEINEX</t>
         </is>
       </c>
-      <c r="I51" t="b">
-        <v>0</v>
-      </c>
       <c r="J51" t="b">
         <v>0</v>
       </c>
       <c r="K51" t="b">
         <v>0</v>
       </c>
-      <c r="L51" t="inlineStr">
+      <c r="L51" t="b">
+        <v>0</v>
+      </c>
+      <c r="M51" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2872,36 +3127,41 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>NCT03305198</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr">
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>BIOlogical Response to Exercise : A Metabolomic Study in Peripheral Artery Disease (BIOR)</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>BIOR</t>
         </is>
       </c>
-      <c r="I52" t="b">
-        <v>0</v>
-      </c>
       <c r="J52" t="b">
         <v>0</v>
       </c>
       <c r="K52" t="b">
         <v>0</v>
       </c>
-      <c r="L52" t="inlineStr">
+      <c r="L52" t="b">
+        <v>0</v>
+      </c>
+      <c r="M52" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -2920,36 +3180,41 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>NCT03538080</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr">
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>Evaluation du pré-marquage Par AccuVein® au Cours Des échographies Doppler de repérage saphène.</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>ACCUMULATION</t>
         </is>
       </c>
-      <c r="I53" t="b">
-        <v>0</v>
-      </c>
       <c r="J53" t="b">
         <v>0</v>
       </c>
       <c r="K53" t="b">
         <v>0</v>
       </c>
-      <c r="L53" t="inlineStr">
+      <c r="L53" t="b">
+        <v>0</v>
+      </c>
+      <c r="M53" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2968,36 +3233,41 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>NCT03433989</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr">
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>Impact of Post-Traumatic Stress Disorder After Pregnancy Loss After 12 Weeks of Gestation (Termination of Pregnancy , Stillbirth, Late Miscarriage)</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>ACTRAMAT-D</t>
         </is>
       </c>
-      <c r="I54" t="b">
-        <v>0</v>
-      </c>
       <c r="J54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54" t="b">
         <v>1</v>
       </c>
-      <c r="L54" t="inlineStr">
+      <c r="L54" t="b">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -3016,36 +3286,41 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>NCT02475122</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr">
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>Prognostic Value of Measuring DsAz by MRI in Cirrhotic Patients on Prophylactic Treatment With β Blocker (AzyMR)</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>AzyMR</t>
         </is>
       </c>
-      <c r="I55" t="b">
-        <v>0</v>
-      </c>
       <c r="J55" t="b">
         <v>0</v>
       </c>
       <c r="K55" t="b">
         <v>0</v>
       </c>
-      <c r="L55" t="inlineStr">
+      <c r="L55" t="b">
+        <v>0</v>
+      </c>
+      <c r="M55" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3064,36 +3339,41 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>NCT03635294</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr">
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>Multi-Omics and IPSCs to Improve the Diagnosis of Rare Intellectual Disabilities</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>MIDRID</t>
         </is>
       </c>
-      <c r="I56" t="b">
-        <v>0</v>
-      </c>
       <c r="J56" t="b">
         <v>0</v>
       </c>
       <c r="K56" t="b">
         <v>0</v>
       </c>
-      <c r="L56" t="inlineStr">
+      <c r="L56" t="b">
+        <v>0</v>
+      </c>
+      <c r="M56" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3112,36 +3392,41 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>NCT03568201</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr">
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>Application de l'oxymétrie Dynamique et Des Index de Pression Pour le Diagnostic Des Plicatures Iliaques du Sportif</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>SALTY-TURTLE</t>
         </is>
       </c>
-      <c r="I57" t="b">
-        <v>0</v>
-      </c>
       <c r="J57" t="b">
         <v>0</v>
       </c>
       <c r="K57" t="b">
         <v>0</v>
       </c>
-      <c r="L57" t="inlineStr">
+      <c r="L57" t="b">
+        <v>0</v>
+      </c>
+      <c r="M57" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -3158,39 +3443,44 @@
           <t>orange</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr">
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
         <is>
           <t>2019-002571-33</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr">
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>Transcutaneous measurement of oxygen during transient hyperoxia 
  Mesure transcutanée de l’oxygène au cours de l’hyperoxie transitoire</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>SCHOTT</t>
         </is>
       </c>
-      <c r="I58" t="b">
-        <v>0</v>
-      </c>
       <c r="J58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" t="b">
         <v>1</v>
       </c>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="b">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3205,36 +3495,41 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>NCT04146636</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr">
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>Screening in Primary Care of Advanced Liver Fibrosis in NAFLD and/or Alcoholic Patients (IMPROVE Study)</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>IMPROVE</t>
         </is>
       </c>
-      <c r="I59" t="b">
-        <v>0</v>
-      </c>
       <c r="J59" t="b">
         <v>0</v>
       </c>
       <c r="K59" t="b">
         <v>0</v>
       </c>
-      <c r="L59" t="inlineStr">
+      <c r="L59" t="b">
+        <v>0</v>
+      </c>
+      <c r="M59" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -3253,36 +3548,41 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>NCT04338841</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr">
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>HOME-CoV: Hospitalization or Outpatient ManagEment of Patients With Confirmed or Probable SARS-CoV-2 Infection. A Before and After Implementation of a Consensus Help-decision Making Rule Study</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>HOME-CoV</t>
         </is>
       </c>
-      <c r="I60" t="b">
-        <v>1</v>
-      </c>
       <c r="J60" t="b">
         <v>1</v>
       </c>
       <c r="K60" t="b">
         <v>1</v>
       </c>
-      <c r="L60" t="inlineStr">
+      <c r="L60" t="b">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3301,40 +3601,45 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>NCT03615833</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>2018-004146-41</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr">
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>Evaluation of a Strategy for Systematic Screening for Vitamin D Deficiency and Treatment in Case of Deficiency, on the Improvement of the Maximum Walking Distance in Patients With Stage 2 Lower Limb Arterial Disease.</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>First-BLINDOS</t>
         </is>
       </c>
-      <c r="I61" t="b">
-        <v>0</v>
-      </c>
       <c r="J61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61" t="b">
         <v>1</v>
       </c>
-      <c r="L61" t="inlineStr">
+      <c r="L61" t="b">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3353,36 +3658,41 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>NCT03832218</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr">
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>Executive Function Disorders and Anxio-depressive Symptomatology in Children and Adolescents With Mitochondrial Pathologies</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>MITOPSY</t>
         </is>
       </c>
-      <c r="I62" t="b">
-        <v>0</v>
-      </c>
       <c r="J62" t="b">
         <v>0</v>
       </c>
       <c r="K62" t="b">
         <v>0</v>
       </c>
-      <c r="L62" t="inlineStr">
+      <c r="L62" t="b">
+        <v>0</v>
+      </c>
+      <c r="M62" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -3401,36 +3711,41 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>NCT03541213</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr">
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>Impact de la Carence Martiale et de Son Traitement Sur le métabolisme Mitochondrial du Cardiomyocyte (MitoCardioFer)</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>MitoCardioFer</t>
         </is>
       </c>
-      <c r="I63" t="b">
-        <v>0</v>
-      </c>
       <c r="J63" t="b">
         <v>0</v>
       </c>
       <c r="K63" t="b">
         <v>0</v>
       </c>
-      <c r="L63" t="inlineStr">
+      <c r="L63" t="b">
+        <v>0</v>
+      </c>
+      <c r="M63" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -3449,36 +3764,41 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>NCT03010943</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr">
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>Chirurgie Eveillee du Cerveau Sous Realite Virtuelle Integree Aux Outils Bloc Operatoire : Etude de Tolerance</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>CERVO1</t>
         </is>
       </c>
-      <c r="I64" t="b">
-        <v>1</v>
-      </c>
       <c r="J64" t="b">
         <v>1</v>
       </c>
       <c r="K64" t="b">
         <v>1</v>
       </c>
-      <c r="L64" t="inlineStr">
+      <c r="L64" t="b">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -3497,36 +3817,41 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>NCT04247477</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr">
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>Comparison of Different Positive End-expiratory Pressure Titration Strategies Using ELectrical Impedance Tomography in Patients With Acute Respiratory Distress Syndrome : the DELTA Physiological Study</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>DELTA</t>
         </is>
       </c>
-      <c r="I65" t="b">
-        <v>0</v>
-      </c>
       <c r="J65" t="b">
         <v>0</v>
       </c>
       <c r="K65" t="b">
         <v>0</v>
       </c>
-      <c r="L65" t="inlineStr">
+      <c r="L65" t="b">
+        <v>0</v>
+      </c>
+      <c r="M65" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3545,36 +3870,41 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
           <t>NCT03357367</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr">
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>Performance du TiVi Pour évaluer la réactivité Microcirculatoire de la Peau à l'Application d'un Courant Galvanique, Effet de l'Aspirine</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>PIRAAT</t>
         </is>
       </c>
-      <c r="I66" t="b">
-        <v>1</v>
-      </c>
       <c r="J66" t="b">
         <v>1</v>
       </c>
       <c r="K66" t="b">
         <v>1</v>
       </c>
-      <c r="L66" t="inlineStr">
+      <c r="L66" t="b">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -3593,32 +3923,37 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>NCT04344041</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr">
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>COvid-19 and Vitamin D Supplementation: a Multicenter Randomized Controlled Trial of High Dose Versus Standard Dose Vitamin D3 in High-risk COVID-19 Patients (CoVitTrial)</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="b">
-        <v>1</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="b">
         <v>1</v>
       </c>
       <c r="K67" t="b">
         <v>1</v>
       </c>
-      <c r="L67" t="inlineStr">
+      <c r="L67" t="b">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3637,36 +3972,41 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
           <t>NCT04548141</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr">
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>Simplification de l'évaluation de l'Activité PHysique Par Interrogatoire Rapide</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>SAPHIR</t>
         </is>
       </c>
-      <c r="I68" t="b">
-        <v>0</v>
-      </c>
       <c r="J68" t="b">
         <v>0</v>
       </c>
       <c r="K68" t="b">
         <v>0</v>
       </c>
-      <c r="L68" t="inlineStr">
+      <c r="L68" t="b">
+        <v>0</v>
+      </c>
+      <c r="M68" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3685,36 +4025,41 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
           <t>NCT04205032</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr">
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>Evaluation in Healthy Volunteers of CARDIOSPACE II for Physiological Studies in Space</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>CDSII</t>
         </is>
       </c>
-      <c r="I69" t="b">
-        <v>0</v>
-      </c>
       <c r="J69" t="b">
         <v>0</v>
       </c>
       <c r="K69" t="b">
         <v>0</v>
       </c>
-      <c r="L69" t="inlineStr">
+      <c r="L69" t="b">
+        <v>0</v>
+      </c>
+      <c r="M69" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -3733,32 +4078,37 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t>NCT04657471</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr">
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>Hospitalization or Outpatient ManagEment of Patients With Suspected or Confirmed SRAS-CoV-2 Infection: the Revised HOME-CoV Score Study.</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="b">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="b">
         <v>0</v>
       </c>
       <c r="K70" t="b">
         <v>0</v>
       </c>
-      <c r="L70" t="inlineStr">
+      <c r="L70" t="b">
+        <v>0</v>
+      </c>
+      <c r="M70" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3777,36 +4127,41 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>NCT04045925</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr">
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>Feasibility Study of the Taïso Practice in Parkinson's Disease</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>Taïso-Park</t>
         </is>
       </c>
-      <c r="I71" t="b">
-        <v>0</v>
-      </c>
       <c r="J71" t="b">
         <v>0</v>
       </c>
       <c r="K71" t="b">
         <v>0</v>
       </c>
-      <c r="L71" t="inlineStr">
+      <c r="L71" t="b">
+        <v>0</v>
+      </c>
+      <c r="M71" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3825,36 +4180,41 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>NCT03158402</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr">
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>High Intensity Preoperative Inspiratory Muscle Training (IMTHi) Effects on the Perioperative Inflammatory Reaction in Cardiac Surgery With an Associated Biocollection.</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>EMI HiPo</t>
         </is>
       </c>
-      <c r="I72" t="b">
-        <v>0</v>
-      </c>
       <c r="J72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72" t="b">
         <v>1</v>
       </c>
-      <c r="L72" t="inlineStr">
+      <c r="L72" t="b">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3873,36 +4233,41 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
           <t>NCT03703765</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr">
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>Volume Estimation of Lower Limbs Before and After Endovascular Venous Intervention or Conventional Surgery in Venous Disease</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>VELVET</t>
         </is>
       </c>
-      <c r="I73" t="b">
-        <v>0</v>
-      </c>
       <c r="J73" t="b">
         <v>0</v>
       </c>
       <c r="K73" t="b">
         <v>0</v>
       </c>
-      <c r="L73" t="inlineStr">
+      <c r="L73" t="b">
+        <v>0</v>
+      </c>
+      <c r="M73" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -3921,36 +4286,41 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>NCT04064489</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr">
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>Thromboembolic Risk Stratification by TRIP Score (Cast) to Guide Physicians in Preventive Treatment Prescriptions for Patients With Lower Limb Trauma Requiring Brace or Casting.</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>CASTING</t>
         </is>
       </c>
-      <c r="I74" t="b">
-        <v>1</v>
-      </c>
       <c r="J74" t="b">
         <v>1</v>
       </c>
       <c r="K74" t="b">
         <v>1</v>
       </c>
-      <c r="L74" t="inlineStr">
+      <c r="L74" t="b">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3969,36 +4339,41 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
           <t>NCT03800771</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr">
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>DOuble tasK Test On ergometeR - Basic Research on Acceptability and Use</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>DOKTORBRAU</t>
         </is>
       </c>
-      <c r="I75" t="b">
-        <v>0</v>
-      </c>
       <c r="J75" t="b">
         <v>0</v>
       </c>
       <c r="K75" t="b">
         <v>0</v>
       </c>
-      <c r="L75" t="inlineStr">
+      <c r="L75" t="b">
+        <v>0</v>
+      </c>
+      <c r="M75" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -4017,36 +4392,41 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t>NCT05365295</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr">
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>Sensitivity of Children With Attention Deficit/Hyperactivity Disorder to Memory Error Production</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>TDAH-DRM</t>
         </is>
       </c>
-      <c r="I76" t="b">
-        <v>0</v>
-      </c>
       <c r="J76" t="b">
         <v>0</v>
       </c>
       <c r="K76" t="b">
         <v>0</v>
       </c>
-      <c r="L76" t="inlineStr">
+      <c r="L76" t="b">
+        <v>0</v>
+      </c>
+      <c r="M76" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4065,36 +4445,41 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
           <t>NCT04235023</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr">
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>PTP1B Implication in the Vascular Dysfunction Associated With Obstructive Sleep Apnea</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>MacroSAS</t>
         </is>
       </c>
-      <c r="I77" t="b">
-        <v>0</v>
-      </c>
       <c r="J77" t="b">
         <v>0</v>
       </c>
       <c r="K77" t="b">
         <v>0</v>
       </c>
-      <c r="L77" t="inlineStr">
+      <c r="L77" t="b">
+        <v>0</v>
+      </c>
+      <c r="M77" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4113,36 +4498,41 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
           <t>NCT04773899</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr">
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>L'Étude de la Dysfonction endothéliale Dans la Maladie à COVID-19 Chez Des Patients en Soins Critiques.</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>CAUSED</t>
         </is>
       </c>
-      <c r="I78" t="b">
-        <v>0</v>
-      </c>
       <c r="J78" t="b">
         <v>0</v>
       </c>
       <c r="K78" t="b">
         <v>0</v>
       </c>
-      <c r="L78" t="inlineStr">
+      <c r="L78" t="b">
+        <v>0</v>
+      </c>
+      <c r="M78" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -4161,36 +4551,41 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
           <t>NCT04196738</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr">
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>Comparison of Volume Assist Control, Dual Mode and Airway Pressure Release Ventilation: A Physiological Study</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>COMIX-R</t>
         </is>
       </c>
-      <c r="I79" t="b">
-        <v>0</v>
-      </c>
       <c r="J79" t="b">
         <v>0</v>
       </c>
       <c r="K79" t="b">
         <v>0</v>
       </c>
-      <c r="L79" t="inlineStr">
+      <c r="L79" t="b">
+        <v>0</v>
+      </c>
+      <c r="M79" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4209,36 +4604,41 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
           <t>NCT04929275</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr">
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>Feasability and Impact of Enhanced Recovery Programs After Surgery for Small Bowel Obstruction</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>RACO</t>
         </is>
       </c>
-      <c r="I80" t="b">
-        <v>0</v>
-      </c>
       <c r="J80" t="b">
         <v>0</v>
       </c>
       <c r="K80" t="b">
         <v>0</v>
       </c>
-      <c r="L80" t="inlineStr">
+      <c r="L80" t="b">
+        <v>0</v>
+      </c>
+      <c r="M80" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -4257,36 +4657,41 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
           <t>NCT04164342</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr">
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>Etude de la prévalence de la Douleur Chronique et de Ses Facteurs de Risque après Une Hospitalisation en réanimation Chirurgicale</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>DOUCREA</t>
         </is>
       </c>
-      <c r="I81" t="b">
-        <v>0</v>
-      </c>
       <c r="J81" t="b">
         <v>0</v>
       </c>
       <c r="K81" t="b">
         <v>0</v>
       </c>
-      <c r="L81" t="inlineStr">
+      <c r="L81" t="b">
+        <v>0</v>
+      </c>
+      <c r="M81" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4305,36 +4710,41 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
           <t>NCT03362710</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr">
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>Evaluation du Risque Vasculaire Par Mesures Non Invasives en Soins Primaires.</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>First-SEDAN</t>
         </is>
       </c>
-      <c r="I82" t="b">
-        <v>0</v>
-      </c>
       <c r="J82" t="b">
         <v>0</v>
       </c>
       <c r="K82" t="b">
         <v>0</v>
       </c>
-      <c r="L82" t="inlineStr">
+      <c r="L82" t="b">
+        <v>0</v>
+      </c>
+      <c r="M82" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -4353,36 +4763,41 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
           <t>NCT05441176</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr">
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>TULIP et MASC : Premiers Usages</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>TEMPUS</t>
         </is>
       </c>
-      <c r="I83" t="b">
-        <v>0</v>
-      </c>
       <c r="J83" t="b">
         <v>0</v>
       </c>
       <c r="K83" t="b">
         <v>0</v>
       </c>
-      <c r="L83" t="inlineStr">
+      <c r="L83" t="b">
+        <v>0</v>
+      </c>
+      <c r="M83" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4401,36 +4816,41 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
           <t>NCT04378335</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr">
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>Assessment of Orality Disorders in Children With Food Allergies</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>ALLERGORAL</t>
         </is>
       </c>
-      <c r="I84" t="b">
-        <v>0</v>
-      </c>
       <c r="J84" t="b">
         <v>0</v>
       </c>
       <c r="K84" t="b">
         <v>0</v>
       </c>
-      <c r="L84" t="inlineStr">
+      <c r="L84" t="b">
+        <v>0</v>
+      </c>
+      <c r="M84" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4449,36 +4869,41 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
           <t>NCT04157790</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr">
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>Efficacy of the CARE Rule Associated With the HEART Score in Patients With Emergency Chest Pain</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>eCARE</t>
         </is>
       </c>
-      <c r="I85" t="b">
-        <v>0</v>
-      </c>
       <c r="J85" t="b">
         <v>0</v>
       </c>
       <c r="K85" t="b">
         <v>0</v>
       </c>
-      <c r="L85" t="inlineStr">
+      <c r="L85" t="b">
+        <v>0</v>
+      </c>
+      <c r="M85" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4497,36 +4922,41 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
           <t>NCT03715738</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr">
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>MEasurement by a Numerical Approach of BREAst Volume MENABREA</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>MENABREA</t>
         </is>
       </c>
-      <c r="I86" t="b">
-        <v>0</v>
-      </c>
       <c r="J86" t="b">
         <v>0</v>
       </c>
       <c r="K86" t="b">
         <v>0</v>
       </c>
-      <c r="L86" t="inlineStr">
+      <c r="L86" t="b">
+        <v>0</v>
+      </c>
+      <c r="M86" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4545,36 +4975,41 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
           <t>NCT05345639</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr">
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>Chest Wall Block After Sternotomy: Randomized Controlled Trial in Cardiac Surgery: (PABLOS Study)</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>PABLOS</t>
         </is>
       </c>
-      <c r="I87" t="b">
-        <v>0</v>
-      </c>
       <c r="J87" t="b">
         <v>0</v>
       </c>
       <c r="K87" t="b">
         <v>0</v>
       </c>
-      <c r="L87" t="inlineStr">
+      <c r="L87" t="b">
+        <v>0</v>
+      </c>
+      <c r="M87" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -4593,36 +5028,41 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
           <t>NCT03840434</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr">
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>COmpartment Syndrome vaLidation Of Non Invasive Assessment of Tissue Pressure (COLONIA)</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>COLONIA</t>
         </is>
       </c>
-      <c r="I88" t="b">
-        <v>0</v>
-      </c>
       <c r="J88" t="b">
         <v>0</v>
       </c>
       <c r="K88" t="b">
         <v>0</v>
       </c>
-      <c r="L88" t="inlineStr">
+      <c r="L88" t="b">
+        <v>0</v>
+      </c>
+      <c r="M88" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -4641,36 +5081,41 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
           <t>NCT04459182</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr">
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>Circulating Exosomes and Endothelial Dysfunction in Patients With Obstructive Sleep Apneas Hypopneas Syndrome(OSA): EXODYS</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>EXODYS</t>
         </is>
       </c>
-      <c r="I89" t="b">
-        <v>0</v>
-      </c>
       <c r="J89" t="b">
         <v>0</v>
       </c>
       <c r="K89" t="b">
         <v>0</v>
       </c>
-      <c r="L89" t="inlineStr">
+      <c r="L89" t="b">
+        <v>0</v>
+      </c>
+      <c r="M89" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -4689,36 +5134,41 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
           <t>NCT04080622</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr">
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>A Randomized Trial to Evaluate the Efficacy of Selenium for the Prevention of Chemotherapy-induced Mucositis During Autologous Stem Cell Transplantation.</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>AutoSelenium</t>
         </is>
       </c>
-      <c r="I90" t="b">
-        <v>0</v>
-      </c>
       <c r="J90" t="b">
         <v>0</v>
       </c>
       <c r="K90" t="b">
         <v>0</v>
       </c>
-      <c r="L90" t="inlineStr">
+      <c r="L90" t="b">
+        <v>0</v>
+      </c>
+      <c r="M90" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -4737,36 +5187,41 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
           <t>NCT05584930</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr">
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>Evaluation of Serum Clusterin and Serum PTX3 Assay During Febrile Aplasia in Children Treated in Pediatric Oncology</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>CluPPFeN</t>
         </is>
       </c>
-      <c r="I91" t="b">
-        <v>0</v>
-      </c>
       <c r="J91" t="b">
         <v>0</v>
       </c>
       <c r="K91" t="b">
         <v>0</v>
       </c>
-      <c r="L91" t="inlineStr">
+      <c r="L91" t="b">
+        <v>0</v>
+      </c>
+      <c r="M91" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4785,36 +5240,41 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
           <t>NCT04316520</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr">
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>A Pilot Study Evaluating the Tolerability of a Ketogenic Diet With Vitamin Supplementation for Patients Receiving Treatment for Metastatic Renal Cell Carcinoma</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>CETOREIN</t>
         </is>
       </c>
-      <c r="I92" t="b">
-        <v>0</v>
-      </c>
       <c r="J92" t="b">
         <v>0</v>
       </c>
       <c r="K92" t="b">
         <v>0</v>
       </c>
-      <c r="L92" t="inlineStr">
+      <c r="L92" t="b">
+        <v>0</v>
+      </c>
+      <c r="M92" t="inlineStr">
         <is>
           <t>DIETARY_SUPPLEMENT</t>
         </is>
@@ -4833,32 +5293,37 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
           <t>NCT04881201</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr">
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>Metabolomic Exploration of Dysregulated Lipid Metabolism in MFN2-related CMT2A (CMT2A) Linked to Mitofusin 2</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr"/>
-      <c r="I93" t="b">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="b">
         <v>0</v>
       </c>
       <c r="K93" t="b">
         <v>0</v>
       </c>
-      <c r="L93" t="inlineStr">
+      <c r="L93" t="b">
+        <v>0</v>
+      </c>
+      <c r="M93" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -4877,36 +5342,41 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
           <t>NCT03869476</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr">
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>Pilot Study for the Development of a Non-invasive Diagnostic Score to Differentiate Between Essential Thrombocythemia, Premyelofibrosis and Myelofibrosis</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>BioScoreSMP</t>
         </is>
       </c>
-      <c r="I94" t="b">
-        <v>0</v>
-      </c>
       <c r="J94" t="b">
         <v>0</v>
       </c>
       <c r="K94" t="b">
         <v>0</v>
       </c>
-      <c r="L94" t="inlineStr">
+      <c r="L94" t="b">
+        <v>0</v>
+      </c>
+      <c r="M94" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -4925,36 +5395,41 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
           <t>NCT03362489</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr">
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>Conversion of in Vitro Fertilization Cycles to Intrauterine Inseminations in Patients With a Poor Ovarian Response to Stimulation</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>ConFIRM</t>
         </is>
       </c>
-      <c r="I95" t="b">
-        <v>1</v>
-      </c>
       <c r="J95" t="b">
         <v>1</v>
       </c>
       <c r="K95" t="b">
         <v>1</v>
       </c>
-      <c r="L95" t="inlineStr">
+      <c r="L95" t="b">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -4973,32 +5448,37 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
           <t>NCT02393014</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr">
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr">
         <is>
           <t>Activité Physique et prévention de la Chute du Patient âGé hospItalisé en Court séjouR: Etude de faisabilité (AGIR)</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>AGIR</t>
         </is>
       </c>
-      <c r="I96" t="b">
-        <v>0</v>
-      </c>
       <c r="J96" t="b">
         <v>0</v>
       </c>
       <c r="K96" t="b">
-        <v>1</v>
-      </c>
-      <c r="L96" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L96" t="b">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -5017,32 +5497,37 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
           <t>NCT02113319</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr"/>
-      <c r="G97" t="inlineStr">
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr">
         <is>
           <t>An Open-Label, Multicenter, Phase II Study to Assess Dasatinib in Patients With Core Binding Factors Acute Myelogenous Leukemia Refractory to Conventional Chemotherapy or in Molecular Relapse. Intergroupe Français Des leucémie aiguë myéloblastique</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>DasaCBF</t>
         </is>
       </c>
-      <c r="I97" t="b">
-        <v>0</v>
-      </c>
       <c r="J97" t="b">
         <v>0</v>
       </c>
       <c r="K97" t="b">
         <v>0</v>
       </c>
-      <c r="L97" t="inlineStr">
+      <c r="L97" t="b">
+        <v>0</v>
+      </c>
+      <c r="M97" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -5061,32 +5546,37 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
           <t>NCT00727935</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr">
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr">
         <is>
           <t>Comparison Of The Analgesia Obtained By Infiltration Of Lidocaïne 1% And Ropivacaïne 0,75% Versus Placebo For The Joinings Of Episiotomies Among Parturients Under Epidural Analgesia</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>LiRoPep</t>
         </is>
       </c>
-      <c r="I98" t="b">
-        <v>0</v>
-      </c>
       <c r="J98" t="b">
         <v>0</v>
       </c>
       <c r="K98" t="b">
         <v>0</v>
       </c>
-      <c r="L98" t="inlineStr">
+      <c r="L98" t="b">
+        <v>0</v>
+      </c>
+      <c r="M98" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -5103,34 +5593,39 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr">
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr">
         <is>
           <t>2021-003770-30</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr">
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr">
         <is>
           <t>L’érythropoïétine pour améliorer le devenir des patients de soins intensifs – EPO-ICU-FS</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>EPO-ICU-FS</t>
         </is>
       </c>
-      <c r="I99" t="b">
-        <v>0</v>
-      </c>
       <c r="J99" t="b">
         <v>0</v>
       </c>
       <c r="K99" t="b">
         <v>0</v>
       </c>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="b">
+        <v>0</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -5143,36 +5638,41 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr">
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr">
         <is>
           <t>2020-001602-34</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr">
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr">
         <is>
           <t>COvid-19 and Vitamin D supplementation: a multicenter randomized controlled Trial of high dose versus standard dose vitamin D3 in high-risk COVID-19 patients 
  CoVitTrial- Supplémentation en vitamine D et COVID-19 : essai multicentrique randomisé comparant l’effet d’une forte dose versus une dose standard de vitamine D chez des patients âgés ayant une infection COVID-19 à risque d’aggravation secondaire</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>CoVitTrial 
  CoVitTrial</t>
         </is>
       </c>
-      <c r="I100" t="b">
-        <v>0</v>
-      </c>
       <c r="J100" t="b">
         <v>0</v>
       </c>
       <c r="K100" t="b">
         <v>0</v>
       </c>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="b">
+        <v>0</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -5185,36 +5685,41 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr">
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr">
         <is>
           <t>2016-002253-38</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr">
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr">
         <is>
           <t>Mesure de la clairance plasmatique du iohexol chez les patients sortant de réanimation après insuffisance rénale aiguë  
  Mesure de la clairance plasmatique du iohexol chez les patients sortant de réanimation après insuffisance rénale aiguë</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>IOXSOR 
  IOXSOR</t>
         </is>
       </c>
-      <c r="I101" t="b">
-        <v>0</v>
-      </c>
       <c r="J101" t="b">
         <v>0</v>
       </c>
       <c r="K101" t="b">
         <v>0</v>
       </c>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="b">
+        <v>0</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -5227,15 +5732,20 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr">
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr">
         <is>
           <t>2015-001342-28</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr"/>
-      <c r="G102" t="inlineStr">
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr">
         <is>
           <t>TOMOSCINTIGRAPHIE HYBRIDE AUX LEUCOCYTES MARQUES DANS LE DIAGNOSTIC DES INFECTIONS DE PROTHESES VASCULAIRES.  Etude LEUCOPRO®@@ -5244,22 +5754,22 @@
  Etude LEUCOPRO®</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
+      <c r="I102" t="inlineStr">
         <is>
           <t>LEUCOPRO® 
  LEUCOPRO®</t>
         </is>
       </c>
-      <c r="I102" t="b">
-        <v>0</v>
-      </c>
       <c r="J102" t="b">
         <v>0</v>
       </c>
       <c r="K102" t="b">
         <v>0</v>
       </c>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="b">
+        <v>0</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -5272,34 +5782,39 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr">
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr">
         <is>
           <t>2011-002387-24</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr">
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr">
         <is>
           <t>Dyva-AAGG: Dysfonction vasculaire micro et macro vasculaire induite par les traitements anti-angiogéniques : Identification de nouveaux marqueurs pronostics</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
+      <c r="I103" t="inlineStr">
         <is>
           <t>DYVA-AAGG</t>
         </is>
       </c>
-      <c r="I103" t="b">
-        <v>0</v>
-      </c>
       <c r="J103" t="b">
         <v>0</v>
       </c>
       <c r="K103" t="b">
         <v>0</v>
       </c>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="b">
+        <v>0</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/publipostage2/0250ngj72/liste_essais_cliniques_identifies_0250ngj72.xlsx
+++ b/publipostage2/0250ngj72/liste_essais_cliniques_identifies_0250ngj72.xlsx
@@ -55,19 +55,19 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>⬛</t>
-  </si>
-  <si>
-    <t>🟥</t>
-  </si>
-  <si>
-    <t>🟩</t>
-  </si>
-  <si>
-    <t>🟧</t>
-  </si>
-  <si>
-    <t>noir</t>
+    <t>📘</t>
+  </si>
+  <si>
+    <t>📕</t>
+  </si>
+  <si>
+    <t>📗</t>
+  </si>
+  <si>
+    <t>📙</t>
+  </si>
+  <si>
+    <t>bleu</t>
   </si>
   <si>
     <t>rouge</t>

--- a/publipostage2/0250ngj72/liste_essais_cliniques_identifies_0250ngj72.xlsx
+++ b/publipostage2/0250ngj72/liste_essais_cliniques_identifies_0250ngj72.xlsx
@@ -55,16 +55,16 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>📘</t>
-  </si>
-  <si>
-    <t>📕</t>
-  </si>
-  <si>
-    <t>📗</t>
-  </si>
-  <si>
-    <t>📙</t>
+    <t>⚠️</t>
+  </si>
+  <si>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>✅</t>
+  </si>
+  <si>
+    <t>+3</t>
   </si>
   <si>
     <t>bleu</t>

--- a/publipostage2/0250ngj72/liste_essais_cliniques_identifies_0250ngj72.xlsx
+++ b/publipostage2/0250ngj72/liste_essais_cliniques_identifies_0250ngj72.xlsx
@@ -67,7 +67,7 @@
     <t>+3</t>
   </si>
   <si>
-    <t>bleu</t>
+    <t>noir</t>
   </si>
   <si>
     <t>rouge</t>
@@ -79,16 +79,16 @@
     <t>orange</t>
   </si>
   <si>
-    <t>pas de résultat ni de publication</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 12 mois</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 36 mois</t>
+    <t>pas de résultat postés ni publiés</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 12 mois</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 36 mois</t>
   </si>
   <si>
     <t>NCT00188071</t>

--- a/publipostage2/0250ngj72/liste_essais_cliniques_identifies_0250ngj72.xlsx
+++ b/publipostage2/0250ngj72/liste_essais_cliniques_identifies_0250ngj72.xlsx
@@ -70,12 +70,12 @@
     <t>NCT00188071</t>
   </si>
   <si>
+    <t>NCT00188032</t>
+  </si>
+  <si>
     <t>NCT00188058</t>
   </si>
   <si>
-    <t>NCT00188032</t>
-  </si>
-  <si>
     <t>NCT00262379</t>
   </si>
   <si>
@@ -85,121 +85,136 @@
     <t>NCT01052974</t>
   </si>
   <si>
+    <t>NCT00648089</t>
+  </si>
+  <si>
     <t>NCT00485147</t>
   </si>
   <si>
-    <t>NCT00648089</t>
+    <t>NCT01592812</t>
+  </si>
+  <si>
+    <t>NCT01149278</t>
   </si>
   <si>
     <t>NCT01390129</t>
   </si>
   <si>
-    <t>NCT01592812</t>
-  </si>
-  <si>
-    <t>NCT01149278</t>
+    <t>NCT01549691</t>
+  </si>
+  <si>
+    <t>NCT01390142</t>
   </si>
   <si>
     <t>NCT00188019</t>
   </si>
   <si>
+    <t>NCT01572961</t>
+  </si>
+  <si>
     <t>NCT02179411</t>
   </si>
   <si>
-    <t>NCT01572961</t>
-  </si>
-  <si>
-    <t>NCT01549691</t>
-  </si>
-  <si>
-    <t>NCT01390142</t>
+    <t>NCT02704247</t>
   </si>
   <si>
     <t>NCT02003157</t>
   </si>
   <si>
-    <t>NCT02704247</t>
-  </si>
-  <si>
     <t>NCT01300845</t>
   </si>
   <si>
     <t>NCT02120144</t>
   </si>
   <si>
+    <t>NCT02687659</t>
+  </si>
+  <si>
+    <t>NCT02549053</t>
+  </si>
+  <si>
     <t>NCT02538120</t>
   </si>
   <si>
-    <t>NCT02549053</t>
+    <t>NCT01426607</t>
   </si>
   <si>
     <t>NCT02086409</t>
   </si>
   <si>
-    <t>NCT02687659</t>
-  </si>
-  <si>
-    <t>NCT01426607</t>
+    <t>NCT02072655</t>
+  </si>
+  <si>
+    <t>NCT02684149</t>
+  </si>
+  <si>
+    <t>NCT02834351</t>
+  </si>
+  <si>
+    <t>NCT02379234</t>
+  </si>
+  <si>
+    <t>NCT02152176</t>
+  </si>
+  <si>
+    <t>NCT02556658</t>
   </si>
   <si>
     <t>NCT02704260</t>
   </si>
   <si>
-    <t>NCT02072655</t>
-  </si>
-  <si>
-    <t>NCT02684149</t>
-  </si>
-  <si>
-    <t>NCT02834351</t>
-  </si>
-  <si>
-    <t>NCT02152176</t>
-  </si>
-  <si>
-    <t>NCT02379234</t>
-  </si>
-  <si>
     <t>NCT01409694</t>
   </si>
   <si>
-    <t>NCT02556658</t>
+    <t>NCT02302456</t>
+  </si>
+  <si>
+    <t>NCT02501408</t>
+  </si>
+  <si>
+    <t>NCT03070860</t>
+  </si>
+  <si>
+    <t>NCT02815956</t>
   </si>
   <si>
     <t>NCT02550275</t>
   </si>
   <si>
-    <t>NCT02302456</t>
-  </si>
-  <si>
-    <t>NCT02501408</t>
-  </si>
-  <si>
-    <t>NCT02815956</t>
+    <t>NCT02997436</t>
   </si>
   <si>
     <t>NCT02463604</t>
   </si>
   <si>
-    <t>NCT03070860</t>
-  </si>
-  <si>
-    <t>NCT02997436</t>
+    <t>NCT02134561</t>
+  </si>
+  <si>
+    <t>NCT02878460</t>
   </si>
   <si>
     <t>NCT02161965</t>
   </si>
   <si>
-    <t>NCT02134561</t>
+    <t>NCT02650232</t>
   </si>
   <si>
     <t>NCT02317003</t>
   </si>
   <si>
-    <t>NCT02650232</t>
-  </si>
-  <si>
-    <t>NCT02878460</t>
+    <t>NCT02861924</t>
+  </si>
+  <si>
+    <t>NCT03305198</t>
+  </si>
+  <si>
+    <t>NCT03538080</t>
+  </si>
+  <si>
+    <t>NCT02689557</t>
+  </si>
+  <si>
+    <t>NCT03356379</t>
   </si>
   <si>
     <t>NCT02811237</t>
@@ -208,144 +223,129 @@
     <t>NCT03631797</t>
   </si>
   <si>
-    <t>NCT02861924</t>
-  </si>
-  <si>
-    <t>NCT03356379</t>
-  </si>
-  <si>
-    <t>NCT02689557</t>
-  </si>
-  <si>
-    <t>NCT03305198</t>
-  </si>
-  <si>
-    <t>NCT03538080</t>
+    <t>NCT03010943</t>
+  </si>
+  <si>
+    <t>NCT03568201</t>
+  </si>
+  <si>
+    <t>NCT03832218</t>
+  </si>
+  <si>
+    <t>NCT03541213</t>
+  </si>
+  <si>
+    <t>NCT03615833</t>
+  </si>
+  <si>
+    <t>NCT04146636</t>
+  </si>
+  <si>
+    <t>NCT04338841</t>
+  </si>
+  <si>
+    <t>NCT02475122</t>
+  </si>
+  <si>
+    <t>NCT03635294</t>
   </si>
   <si>
     <t>NCT03433989</t>
   </si>
   <si>
-    <t>NCT02475122</t>
-  </si>
-  <si>
-    <t>NCT03635294</t>
-  </si>
-  <si>
-    <t>NCT03568201</t>
-  </si>
-  <si>
-    <t>NCT04146636</t>
-  </si>
-  <si>
-    <t>NCT04338841</t>
-  </si>
-  <si>
-    <t>NCT03615833</t>
-  </si>
-  <si>
-    <t>NCT03832218</t>
-  </si>
-  <si>
-    <t>NCT03541213</t>
-  </si>
-  <si>
-    <t>NCT03010943</t>
+    <t>NCT03158402</t>
   </si>
   <si>
     <t>NCT04247477</t>
   </si>
   <si>
+    <t>NCT04657471</t>
+  </si>
+  <si>
+    <t>NCT04205032</t>
+  </si>
+  <si>
+    <t>NCT04548141</t>
+  </si>
+  <si>
+    <t>NCT04045925</t>
+  </si>
+  <si>
+    <t>NCT04344041</t>
+  </si>
+  <si>
     <t>NCT03357367</t>
   </si>
   <si>
-    <t>NCT04344041</t>
-  </si>
-  <si>
-    <t>NCT04548141</t>
-  </si>
-  <si>
-    <t>NCT04205032</t>
-  </si>
-  <si>
-    <t>NCT04657471</t>
-  </si>
-  <si>
-    <t>NCT04045925</t>
-  </si>
-  <si>
-    <t>NCT03158402</t>
-  </si>
-  <si>
     <t>NCT03703765</t>
   </si>
   <si>
+    <t>NCT04235023</t>
+  </si>
+  <si>
+    <t>NCT04929275</t>
+  </si>
+  <si>
+    <t>NCT03800771</t>
+  </si>
+  <si>
+    <t>NCT04164342</t>
+  </si>
+  <si>
+    <t>NCT04196738</t>
+  </si>
+  <si>
+    <t>NCT03362710</t>
+  </si>
+  <si>
+    <t>NCT05365295</t>
+  </si>
+  <si>
+    <t>NCT04773899</t>
+  </si>
+  <si>
     <t>NCT04064489</t>
   </si>
   <si>
-    <t>NCT03800771</t>
-  </si>
-  <si>
-    <t>NCT05365295</t>
-  </si>
-  <si>
-    <t>NCT04235023</t>
-  </si>
-  <si>
-    <t>NCT04773899</t>
-  </si>
-  <si>
-    <t>NCT04196738</t>
-  </si>
-  <si>
-    <t>NCT04929275</t>
-  </si>
-  <si>
-    <t>NCT04164342</t>
-  </si>
-  <si>
-    <t>NCT03362710</t>
+    <t>NCT03840434</t>
   </si>
   <si>
     <t>NCT05441176</t>
   </si>
   <si>
+    <t>NCT04157790</t>
+  </si>
+  <si>
+    <t>NCT03715738</t>
+  </si>
+  <si>
+    <t>NCT04080622</t>
+  </si>
+  <si>
     <t>NCT04378335</t>
   </si>
   <si>
-    <t>NCT04157790</t>
-  </si>
-  <si>
-    <t>NCT03715738</t>
+    <t>NCT04459182</t>
   </si>
   <si>
     <t>NCT05345639</t>
   </si>
   <si>
-    <t>NCT03840434</t>
-  </si>
-  <si>
-    <t>NCT04459182</t>
-  </si>
-  <si>
-    <t>NCT04080622</t>
+    <t>NCT04881201</t>
   </si>
   <si>
     <t>NCT05584930</t>
   </si>
   <si>
+    <t>NCT03362489</t>
+  </si>
+  <si>
     <t>NCT04316520</t>
   </si>
   <si>
-    <t>NCT04881201</t>
-  </si>
-  <si>
     <t>NCT03869476</t>
   </si>
   <si>
-    <t>NCT03362489</t>
-  </si>
-  <si>
     <t>NCT02393014</t>
   </si>
   <si>
@@ -433,12 +433,12 @@
     <t>Postoperative Pain After Medical Abortion Under Local Anesthesia : a Prospective and Randomized Trial Comparing Several Analgesic Regimen</t>
   </si>
   <si>
+    <t>Strategies for Suspected Pulmonary Embolism in Emergency Departments - SPEED Study</t>
+  </si>
+  <si>
     <t>Comparison of Two Strategies for Setting Positive End-Expiratory Pressure in Acute Lung Injury/ Acute Respiratory Distress Syndrome (ExPress Study).</t>
   </si>
   <si>
-    <t>Strategies for Suspected Pulmonary Embolism in Emergency Departments - SPEED Study</t>
-  </si>
-  <si>
     <t>Multicenter Study, Randomized and Pragmatic, Comparing Two Therapeutic Strategies : Use or Non-use of Epoetin Beta in Patients Infected by Chronic Hepatitis C and Treated by Combination Therapy Peginterferon Alfa-2a Plus Ribavirin</t>
   </si>
   <si>
@@ -448,33 +448,33 @@
     <t>Perioperative Analgesia by Femoral Perineural Catheter for Femoral Neck Fracture - Study KTcol -</t>
   </si>
   <si>
+    <t>ErythroPOietin in Myocardial Infarction</t>
+  </si>
+  <si>
     <t>Study of Human Locomotion With Global Positioning System. Application to Patients With Peripheral Arterial Disease</t>
   </si>
   <si>
-    <t>ErythroPOietin in Myocardial Infarction</t>
+    <t>Investigation of the Arterial Effects of the Veinoplus(r) Stimlator Device.</t>
   </si>
   <si>
     <t>Remote Ischemic Preconditioning in Aortic Valve Surgery (RIP-Valve)</t>
   </si>
   <si>
-    <t>Investigation of the Arterial Effects of the Veinoplus(r) Stimlator Device.</t>
+    <t>Assessment of Two Modes of Premedication in Surgery - PREMED Study</t>
+  </si>
+  <si>
+    <t>Remote Ischemic Preconditioning Combined to Local Ischemic Postconditioning in Acute Myocardial Infarction (RIRE-1)</t>
   </si>
   <si>
     <t>Evaluation Des méthodes de dépistage du Paragangliome héréditaire Chez Les Sujets prédisposés génétiquement</t>
   </si>
   <si>
+    <t>Amélioration Des Techniques d'étude de la Micro-cirulation cutanée Chez Des Sujets Sains</t>
+  </si>
+  <si>
     <t>Study of the Renal Perfusion in Healthy Volunteers and Renal Transplant Recipients During an Orthostatic Stress</t>
   </si>
   <si>
-    <t>Amélioration Des Techniques d'étude de la Micro-cirulation cutanée Chez Des Sujets Sains</t>
-  </si>
-  <si>
-    <t>Assessment of Two Modes of Premedication in Surgery - PREMED Study</t>
-  </si>
-  <si>
-    <t>Remote Ischemic Preconditioning Combined to Local Ischemic Postconditioning in Acute Myocardial Infarction (RIRE-1)</t>
-  </si>
-  <si>
     <t>Evaluation of CARDIOSPACE System in Healthy Volunteers for Physiological Research in Space Environment</t>
   </si>
   <si>
@@ -484,230 +484,221 @@
     <t>Effect of Observation Plus Imagination of Gait on Stride Variability in Young and Older Adults</t>
   </si>
   <si>
+    <t>TEMIS: a Pilot Study to Evaluate a Device to Characterize Ambulatory Physical Activity</t>
+  </si>
+  <si>
+    <t>Prevalence of Human Papillomavirus in Barrett Esophagus Compared With Controls</t>
+  </si>
+  <si>
     <t>Assessment of the Neurovascular Microcirculatory Response in Diabetes Type 1</t>
   </si>
   <si>
-    <t>Prevalence of Human Papillomavirus in Barrett Esophagus Compared With Controls</t>
+    <t>VASO-AM :Impact of Oral Appliance Therapy on Endothelial Function in Obstructive Sleep Apnea</t>
   </si>
   <si>
     <t>Dairy Product, Calcium &amp; Vitamin D Supplementation and Cognitive-motor Function</t>
   </si>
   <si>
-    <t>TEMIS: a Pilot Study to Evaluate a Device to Characterize Ambulatory Physical Activity</t>
-  </si>
-  <si>
-    <t>VASO-AM :Impact of Oral Appliance Therapy on Endothelial Function in Obstructive Sleep Apnea</t>
+    <t>Impact of Socio-aesthetic Care in the Quality of Life of Patients Treated for Lymphoma During and After Hospitalization</t>
+  </si>
+  <si>
+    <t>Pain Impact Assessment of the Relational Touch During Arterial Puncture in ICU - TORREA</t>
+  </si>
+  <si>
+    <t>Atteinte Tissulaire au Cours de l'ischémie Chronique d'Effort. Validation d'un modèle d'étude du Muscle Sartorius Humain</t>
+  </si>
+  <si>
+    <t>SIMulation for HEmofiltration in Intensive caRe Unit</t>
+  </si>
+  <si>
+    <t>Titration Morphinique autocontrôlée Par le Patient Par un Dispositif mécanique à Usage Unique Versus Administration Par l'infirmière Chez Les Patients Ayant Une Douleur aiguë sévère Aux Urgences.</t>
+  </si>
+  <si>
+    <t>Predicted Level of General Anaesthesia in Hip Fracture Surgery</t>
   </si>
   <si>
     <t>Endofibrose Vasculaire et génétique</t>
   </si>
   <si>
-    <t>Impact of Socio-aesthetic Care in the Quality of Life of Patients Treated for Lymphoma During and After Hospitalization</t>
-  </si>
-  <si>
-    <t>Pain Impact Assessment of the Relational Touch During Arterial Puncture in ICU - TORREA</t>
-  </si>
-  <si>
-    <t>Atteinte Tissulaire au Cours de l'ischémie Chronique d'Effort. Validation d'un modèle d'étude du Muscle Sartorius Humain</t>
-  </si>
-  <si>
-    <t>Titration Morphinique autocontrôlée Par le Patient Par un Dispositif mécanique à Usage Unique Versus Administration Par l'infirmière Chez Les Patients Ayant Une Douleur aiguë sévère Aux Urgences.</t>
-  </si>
-  <si>
-    <t>SIMulation for HEmofiltration in Intensive caRe Unit</t>
-  </si>
-  <si>
     <t>Evaluation d'Une stratégie thérapeutique d'Association médicamenteuse Pour la Prise en Charge de la Maladie d'Alzheimer et Des Maladies apparentées au Stade modéré</t>
   </si>
   <si>
-    <t>Predicted Level of General Anaesthesia in Hip Fracture Surgery</t>
-  </si>
-  <si>
     <t>Tranexamic Acid for Preventing Postpartum Haemorrhage Following a Vaginal Delivery: a Multicenter Randomised Double Blind Placebo Controlled Trial</t>
   </si>
   <si>
     <t>Comparaison du Pied Bionique Proprio-Foot® Versus le Pied Habituel Chez Les amputés Tibiaux</t>
   </si>
   <si>
+    <t>Glucidic Metabolism, Ossification and Arterial Calcification During PseudoXanthoma Elasticum (PXE)</t>
+  </si>
+  <si>
     <t>InteresT And Mechanisms of Percutaneous Posterior tIbial Nerve Stimulation to Prevent pOstoperative Ileus in ColorectAl Surgery: A Preliminary Study</t>
   </si>
   <si>
+    <t>Asa Test ; un Nouvel Outil Dans le dépistage du Traitement Par Aspirine ? (This Official Titre is in French and Contains no Spelling Error. English Translation for it Would be : "ASA-test. A New Tool for the Screening of Aspirin Treatment")</t>
+  </si>
+  <si>
     <t>Renal PRotection Against Contrast mEdium-induced nephroPathy in High Risk Patients undErgoing Coronary Angiography</t>
   </si>
   <si>
-    <t>Glucidic Metabolism, Ossification and Arterial Calcification During PseudoXanthoma Elasticum (PXE)</t>
-  </si>
-  <si>
-    <t>Asa Test ; un Nouvel Outil Dans le dépistage du Traitement Par Aspirine ? (This Official Titre is in French and Contains no Spelling Error. English Translation for it Would be : "ASA-test. A New Tool for the Screening of Aspirin Treatment")</t>
+    <t>ORI2 : ORI for hyperOxia Reduction in ICU</t>
   </si>
   <si>
     <t>The VICTORIA Study (Vascular CalcIfiCation and sTiffness Induced by ORal antIcoAgulation) Comparison Anti-vitamin K Versus Anti-Xa.</t>
   </si>
   <si>
+    <t>Pilot Study to Evaluate the Somnotouch Device to Quantify Spontaneous Baroreflex Sensitivity in Healthy Subjects and in Patients With Heart Failure</t>
+  </si>
+  <si>
     <t>Physical Exercise Prescription With PEdometeR in General Practice for Patients With Cardiovascular Risk Factors - The PEPPER Pragmatic Randomised Controlled Trial</t>
   </si>
   <si>
-    <t>Pilot Study to Evaluate the Somnotouch Device to Quantify Spontaneous Baroreflex Sensitivity in Healthy Subjects and in Patients With Heart Failure</t>
-  </si>
-  <si>
-    <t>ORI2 : ORI for hyperOxia Reduction in ICU</t>
+    <t>Réponse à l'Application d'Une Pression Locale en Laser Speckle Imaging Locally Applied Pressure-induced Vasodilatation</t>
+  </si>
+  <si>
+    <t>BIOlogical Response to Exercise : A Metabolomic Study in Peripheral Artery Disease (BIOR)</t>
+  </si>
+  <si>
+    <t>Evaluation du pré-marquage Par AccuVein® au Cours Des échographies Doppler de repérage saphène.</t>
+  </si>
+  <si>
+    <t>VEINEX : Venous Investigations During Exercise</t>
+  </si>
+  <si>
+    <t>Application de l'oxymétrie Dynamique Pour le Diagnostic Des pièges artériels poplités</t>
   </si>
   <si>
     <t>Criteria for Hospitalization or Outpatient Management of Patients With Pulmonary Embolism, Hestia Rule Versus Simplified PESI Score : an Open-label Controlled Randomized International Trial (HOME-PE)</t>
   </si>
   <si>
     <t>L'Etude préopératoire de la Microcirculation Pour la prédiction Des Complications après Une Chirurgie Cardiaque Sous Circulation Extracorporelle.</t>
-  </si>
-  <si>
-    <t>Réponse à l'Application d'Une Pression Locale en Laser Speckle Imaging Locally Applied Pressure-induced Vasodilatation</t>
-  </si>
-  <si>
-    <t>Application de l'oxymétrie Dynamique Pour le Diagnostic Des pièges artériels poplités</t>
-  </si>
-  <si>
-    <t>VEINEX : Venous Investigations During Exercise</t>
-  </si>
-  <si>
-    <t>BIOlogical Response to Exercise : A Metabolomic Study in Peripheral Artery Disease (BIOR)</t>
-  </si>
-  <si>
-    <t>Evaluation du pré-marquage Par AccuVein® au Cours Des échographies Doppler de repérage saphène.</t>
-  </si>
-  <si>
-    <t>Impact of Post-Traumatic Stress Disorder After Pregnancy Loss After 12 Weeks of Gestation (Termination of Pregnancy , Stillbirth, Late Miscarriage)</t>
-  </si>
-  <si>
-    <t>Prognostic Value of Measuring DsAz by MRI in Cirrhotic Patients on Prophylactic Treatment With β Blocker (AzyMR)</t>
-  </si>
-  <si>
-    <t>Multi-Omics and IPSCs to Improve the Diagnosis of Rare Intellectual Disabilities</t>
-  </si>
-  <si>
-    <t>Application de l'oxymétrie Dynamique et Des Index de Pression Pour le Diagnostic Des Plicatures Iliaques du Sportif</t>
   </si>
   <si>
     <t>Transcutaneous measurement of oxygen during transient hyperoxia 
  Mesure transcutanée de l’oxygène au cours de l’hyperoxie transitoire</t>
   </si>
   <si>
+    <t>Chirurgie Eveillee du Cerveau Sous Realite Virtuelle Integree Aux Outils Bloc Operatoire : Etude de Tolerance</t>
+  </si>
+  <si>
+    <t>Application de l'oxymétrie Dynamique et Des Index de Pression Pour le Diagnostic Des Plicatures Iliaques du Sportif</t>
+  </si>
+  <si>
+    <t>Executive Function Disorders and Anxio-depressive Symptomatology in Children and Adolescents With Mitochondrial Pathologies</t>
+  </si>
+  <si>
+    <t>Impact de la Carence Martiale et de Son Traitement Sur le métabolisme Mitochondrial du Cardiomyocyte (MitoCardioFer)</t>
+  </si>
+  <si>
+    <t>Evaluation of a Strategy for Systematic Screening for Vitamin D Deficiency and Treatment in Case of Deficiency, on the Improvement of the Maximum Walking Distance in Patients With Stage 2 Lower Limb Arterial Disease.</t>
+  </si>
+  <si>
     <t>Screening in Primary Care of Advanced Liver Fibrosis in NAFLD and/or Alcoholic Patients (IMPROVE Study)</t>
   </si>
   <si>
     <t>HOME-CoV: Hospitalization or Outpatient ManagEment of Patients With Confirmed or Probable SARS-CoV-2 Infection. A Before and After Implementation of a Consensus Help-decision Making Rule Study</t>
   </si>
   <si>
-    <t>Evaluation of a Strategy for Systematic Screening for Vitamin D Deficiency and Treatment in Case of Deficiency, on the Improvement of the Maximum Walking Distance in Patients With Stage 2 Lower Limb Arterial Disease.</t>
-  </si>
-  <si>
-    <t>Executive Function Disorders and Anxio-depressive Symptomatology in Children and Adolescents With Mitochondrial Pathologies</t>
-  </si>
-  <si>
-    <t>Impact de la Carence Martiale et de Son Traitement Sur le métabolisme Mitochondrial du Cardiomyocyte (MitoCardioFer)</t>
-  </si>
-  <si>
-    <t>Chirurgie Eveillee du Cerveau Sous Realite Virtuelle Integree Aux Outils Bloc Operatoire : Etude de Tolerance</t>
+    <t>Prognostic Value of Measuring DsAz by MRI in Cirrhotic Patients on Prophylactic Treatment With β Blocker (AzyMR)</t>
+  </si>
+  <si>
+    <t>Multi-Omics and IPSCs to Improve the Diagnosis of Rare Intellectual Disabilities</t>
+  </si>
+  <si>
+    <t>Impact of Post-Traumatic Stress Disorder After Pregnancy Loss After 12 Weeks of Gestation (Termination of Pregnancy , Stillbirth, Late Miscarriage)</t>
+  </si>
+  <si>
+    <t>High Intensity Preoperative Inspiratory Muscle Training (IMTHi) Effects on the Perioperative Inflammatory Reaction in Cardiac Surgery With an Associated Biocollection.</t>
   </si>
   <si>
     <t>Comparison of Different Positive End-expiratory Pressure Titration Strategies Using ELectrical Impedance Tomography in Patients With Acute Respiratory Distress Syndrome : the DELTA Physiological Study</t>
   </si>
   <si>
+    <t>Hospitalization or Outpatient ManagEment of Patients With Suspected or Confirmed SRAS-CoV-2 Infection: the Revised HOME-CoV Score Study.</t>
+  </si>
+  <si>
+    <t>Evaluation in Healthy Volunteers of CARDIOSPACE II for Physiological Studies in Space</t>
+  </si>
+  <si>
+    <t>Simplification de l'évaluation de l'Activité PHysique Par Interrogatoire Rapide</t>
+  </si>
+  <si>
+    <t>Feasibility Study of the Taïso Practice in Parkinson's Disease</t>
+  </si>
+  <si>
+    <t>COvid-19 and Vitamin D Supplementation: a Multicenter Randomized Controlled Trial of High Dose Versus Standard Dose Vitamin D3 in High-risk COVID-19 Patients (CoVitTrial)</t>
+  </si>
+  <si>
     <t>Performance du TiVi Pour évaluer la réactivité Microcirculatoire de la Peau à l'Application d'un Courant Galvanique, Effet de l'Aspirine</t>
   </si>
   <si>
-    <t>COvid-19 and Vitamin D Supplementation: a Multicenter Randomized Controlled Trial of High Dose Versus Standard Dose Vitamin D3 in High-risk COVID-19 Patients (CoVitTrial)</t>
-  </si>
-  <si>
-    <t>Simplification de l'évaluation de l'Activité PHysique Par Interrogatoire Rapide</t>
-  </si>
-  <si>
-    <t>Evaluation in Healthy Volunteers of CARDIOSPACE II for Physiological Studies in Space</t>
-  </si>
-  <si>
-    <t>Hospitalization or Outpatient ManagEment of Patients With Suspected or Confirmed SRAS-CoV-2 Infection: the Revised HOME-CoV Score Study.</t>
-  </si>
-  <si>
-    <t>Feasibility Study of the Taïso Practice in Parkinson's Disease</t>
-  </si>
-  <si>
-    <t>High Intensity Preoperative Inspiratory Muscle Training (IMTHi) Effects on the Perioperative Inflammatory Reaction in Cardiac Surgery With an Associated Biocollection.</t>
-  </si>
-  <si>
     <t>Volume Estimation of Lower Limbs Before and After Endovascular Venous Intervention or Conventional Surgery in Venous Disease</t>
   </si>
   <si>
+    <t>PTP1B Implication in the Vascular Dysfunction Associated With Obstructive Sleep Apnea</t>
+  </si>
+  <si>
+    <t>Feasability and Impact of Enhanced Recovery Programs After Surgery for Small Bowel Obstruction</t>
+  </si>
+  <si>
+    <t>DOuble tasK Test On ergometeR - Basic Research on Acceptability and Use</t>
+  </si>
+  <si>
+    <t>Etude de la prévalence de la Douleur Chronique et de Ses Facteurs de Risque après Une Hospitalisation en réanimation Chirurgicale</t>
+  </si>
+  <si>
+    <t>Comparison of Volume Assist Control, Dual Mode and Airway Pressure Release Ventilation: A Physiological Study</t>
+  </si>
+  <si>
+    <t>Evaluation du Risque Vasculaire Par Mesures Non Invasives en Soins Primaires.</t>
+  </si>
+  <si>
+    <t>Sensitivity of Children With Attention Deficit/Hyperactivity Disorder to Memory Error Production</t>
+  </si>
+  <si>
+    <t>L'Étude de la Dysfonction endothéliale Dans la Maladie à COVID-19 Chez Des Patients en Soins Critiques.</t>
+  </si>
+  <si>
     <t>Thromboembolic Risk Stratification by TRIP Score (Cast) to Guide Physicians in Preventive Treatment Prescriptions for Patients With Lower Limb Trauma Requiring Brace or Casting.</t>
   </si>
   <si>
-    <t>DOuble tasK Test On ergometeR - Basic Research on Acceptability and Use</t>
-  </si>
-  <si>
-    <t>Sensitivity of Children With Attention Deficit/Hyperactivity Disorder to Memory Error Production</t>
-  </si>
-  <si>
-    <t>PTP1B Implication in the Vascular Dysfunction Associated With Obstructive Sleep Apnea</t>
-  </si>
-  <si>
-    <t>L'Étude de la Dysfonction endothéliale Dans la Maladie à COVID-19 Chez Des Patients en Soins Critiques.</t>
-  </si>
-  <si>
-    <t>Comparison of Volume Assist Control, Dual Mode and Airway Pressure Release Ventilation: A Physiological Study</t>
-  </si>
-  <si>
-    <t>Feasability and Impact of Enhanced Recovery Programs After Surgery for Small Bowel Obstruction</t>
-  </si>
-  <si>
-    <t>Etude de la prévalence de la Douleur Chronique et de Ses Facteurs de Risque après Une Hospitalisation en réanimation Chirurgicale</t>
-  </si>
-  <si>
-    <t>Evaluation du Risque Vasculaire Par Mesures Non Invasives en Soins Primaires.</t>
+    <t>COmpartment Syndrome vaLidation Of Non Invasive Assessment of Tissue Pressure (COLONIA)</t>
   </si>
   <si>
     <t>TULIP et MASC : Premiers Usages</t>
   </si>
   <si>
+    <t>Efficacy of the CARE Rule Associated With the HEART Score in Patients With Emergency Chest Pain</t>
+  </si>
+  <si>
+    <t>MEasurement by a Numerical Approach of BREAst Volume MENABREA</t>
+  </si>
+  <si>
+    <t>A Randomized Trial to Evaluate the Efficacy of Selenium for the Prevention of Chemotherapy-induced Mucositis During Autologous Stem Cell Transplantation.</t>
+  </si>
+  <si>
     <t>Assessment of Orality Disorders in Children With Food Allergies</t>
   </si>
   <si>
-    <t>Efficacy of the CARE Rule Associated With the HEART Score in Patients With Emergency Chest Pain</t>
-  </si>
-  <si>
-    <t>MEasurement by a Numerical Approach of BREAst Volume MENABREA</t>
+    <t>Circulating Exosomes and Endothelial Dysfunction in Patients With Obstructive Sleep Apneas Hypopneas Syndrome(OSA): EXODYS</t>
   </si>
   <si>
     <t>Chest Wall Block After Sternotomy: Randomized Controlled Trial in Cardiac Surgery: (PABLOS Study)</t>
   </si>
   <si>
-    <t>COmpartment Syndrome vaLidation Of Non Invasive Assessment of Tissue Pressure (COLONIA)</t>
-  </si>
-  <si>
-    <t>Circulating Exosomes and Endothelial Dysfunction in Patients With Obstructive Sleep Apneas Hypopneas Syndrome(OSA): EXODYS</t>
-  </si>
-  <si>
-    <t>A Randomized Trial to Evaluate the Efficacy of Selenium for the Prevention of Chemotherapy-induced Mucositis During Autologous Stem Cell Transplantation.</t>
+    <t>Metabolomic Exploration of Dysregulated Lipid Metabolism in MFN2-related CMT2A (CMT2A) Linked to Mitofusin 2</t>
   </si>
   <si>
     <t>Evaluation of Serum Clusterin and Serum PTX3 Assay During Febrile Aplasia in Children Treated in Pediatric Oncology</t>
   </si>
   <si>
+    <t>Conversion of in Vitro Fertilization Cycles to Intrauterine Inseminations in Patients With a Poor Ovarian Response to Stimulation</t>
+  </si>
+  <si>
     <t>A Pilot Study Evaluating the Tolerability of a Ketogenic Diet With Vitamin Supplementation for Patients Receiving Treatment for Metastatic Renal Cell Carcinoma</t>
   </si>
   <si>
-    <t>Metabolomic Exploration of Dysregulated Lipid Metabolism in MFN2-related CMT2A (CMT2A) Linked to Mitofusin 2</t>
-  </si>
-  <si>
     <t>Pilot Study for the Development of a Non-invasive Diagnostic Score to Differentiate Between Essential Thrombocythemia, Premyelofibrosis and Myelofibrosis</t>
-  </si>
-  <si>
-    <t>Conversion of in Vitro Fertilization Cycles to Intrauterine Inseminations in Patients With a Poor Ovarian Response to Stimulation</t>
-  </si>
-  <si>
-    <t>Activité Physique et prévention de la Chute du Patient âGé hospItalisé en Court séjouR: Etude de faisabilité (AGIR)</t>
-  </si>
-  <si>
-    <t>An Open-Label, Multicenter, Phase II Study to Assess Dasatinib in Patients With Core Binding Factors Acute Myelogenous Leukemia Refractory to Conventional Chemotherapy or in Molecular Relapse. Intergroupe Français Des leucémie aiguë myéloblastique</t>
-  </si>
-  <si>
-    <t>Comparison Of The Analgesia Obtained By Infiltration Of Lidocaïne 1% And Ropivacaïne 0,75% Versus Placebo For The Joinings Of Episiotomies Among Parturients Under Epidural Analgesia</t>
   </si>
   <si>
     <t>L’érythropoïétine pour améliorer le devenir des patients de soins intensifs – EPO-ICU-FS</t>
@@ -728,121 +719,145 @@
     <t>Dyva-AAGG: Dysfonction vasculaire micro et macro vasculaire induite par les traitements anti-angiogéniques : Identification de nouveaux marqueurs pronostics</t>
   </si>
   <si>
+    <t>Activité Physique et prévention de la Chute du Patient âGé hospItalisé en Court séjouR: Etude de faisabilité (AGIR)</t>
+  </si>
+  <si>
+    <t>An Open-Label, Multicenter, Phase II Study to Assess Dasatinib in Patients With Core Binding Factors Acute Myelogenous Leukemia Refractory to Conventional Chemotherapy or in Molecular Relapse. Intergroupe Français Des leucémie aiguë myéloblastique</t>
+  </si>
+  <si>
+    <t>Comparison Of The Analgesia Obtained By Infiltration Of Lidocaïne 1% And Ropivacaïne 0,75% Versus Placebo For The Joinings Of Episiotomies Among Parturients Under Epidural Analgesia</t>
+  </si>
+  <si>
     <t>ExPress</t>
   </si>
   <si>
     <t>KTcol</t>
   </si>
   <si>
+    <t>EPOMI</t>
+  </si>
+  <si>
     <t>Starter-GPS</t>
   </si>
   <si>
-    <t>EPOMI</t>
+    <t>SEPSISPAM</t>
   </si>
   <si>
     <t>RIP-Valve</t>
   </si>
   <si>
-    <t>SEPSISPAM</t>
+    <t>PREMED</t>
+  </si>
+  <si>
+    <t>RIRE-1</t>
+  </si>
+  <si>
+    <t>MICROTEC</t>
   </si>
   <si>
     <t>ortho_rein</t>
   </si>
   <si>
-    <t>MICROTEC</t>
-  </si>
-  <si>
-    <t>PREMED</t>
-  </si>
-  <si>
-    <t>RIRE-1</t>
+    <t>CARDIOSPACE</t>
   </si>
   <si>
     <t>HYPNOART</t>
   </si>
   <si>
-    <t>CARDIOSPACE</t>
-  </si>
-  <si>
     <t>OXYREA</t>
   </si>
   <si>
     <t>OBI</t>
   </si>
   <si>
+    <t>TEMIS</t>
+  </si>
+  <si>
+    <t>Barrett</t>
+  </si>
+  <si>
     <t>NEURODIAB1</t>
   </si>
   <si>
-    <t>Barrett</t>
+    <t>VASO-AM</t>
   </si>
   <si>
     <t>GAME-D2</t>
   </si>
   <si>
-    <t>TEMIS</t>
-  </si>
-  <si>
-    <t>VASO-AM</t>
+    <t>CareSSE</t>
+  </si>
+  <si>
+    <t>ToRRéa</t>
+  </si>
+  <si>
+    <t>SARTORIUS</t>
+  </si>
+  <si>
+    <t>SIMHeR</t>
+  </si>
+  <si>
+    <t>TACIDOU</t>
+  </si>
+  <si>
+    <t>NAPfem</t>
   </si>
   <si>
     <t>GOSSER</t>
   </si>
   <si>
-    <t>CareSSE</t>
-  </si>
-  <si>
-    <t>ToRRéa</t>
-  </si>
-  <si>
-    <t>SARTORIUS</t>
-  </si>
-  <si>
-    <t>TACIDOU</t>
-  </si>
-  <si>
-    <t>SIMHeR</t>
-  </si>
-  <si>
     <t>AD-IDEA</t>
   </si>
   <si>
-    <t>NAPfem</t>
+    <t>TRAAP</t>
+  </si>
+  <si>
+    <t>PROPRIO-FOOT</t>
+  </si>
+  <si>
+    <t>GOCAPXE</t>
+  </si>
+  <si>
+    <t>pre-TAPIOCA</t>
   </si>
   <si>
     <t>COSIMH</t>
   </si>
   <si>
-    <t>TRAAP</t>
-  </si>
-  <si>
-    <t>PROPRIO-FOOT</t>
-  </si>
-  <si>
-    <t>pre-TAPIOCA</t>
+    <t>FirstAMOS</t>
   </si>
   <si>
     <t>PREPARE</t>
   </si>
   <si>
-    <t>GOCAPXE</t>
-  </si>
-  <si>
-    <t>FirstAMOS</t>
+    <t>PREHUNT</t>
+  </si>
+  <si>
+    <t>ORI2</t>
   </si>
   <si>
     <t>VICTORIA</t>
   </si>
   <si>
-    <t>PREHUNT</t>
+    <t>SOMNO-BRS</t>
   </si>
   <si>
     <t>PEPPER</t>
   </si>
   <si>
-    <t>SOMNO-BRS</t>
-  </si>
-  <si>
-    <t>ORI2</t>
+    <t>LAV</t>
+  </si>
+  <si>
+    <t>BIOR</t>
+  </si>
+  <si>
+    <t>ACCUMULATION</t>
+  </si>
+  <si>
+    <t>VEINEX</t>
+  </si>
+  <si>
+    <t>PETRUS</t>
   </si>
   <si>
     <t>HOME-PE</t>
@@ -851,145 +866,121 @@
     <t>MONS</t>
   </si>
   <si>
-    <t>LAV</t>
-  </si>
-  <si>
-    <t>PETRUS</t>
-  </si>
-  <si>
-    <t>VEINEX</t>
-  </si>
-  <si>
-    <t>BIOR</t>
-  </si>
-  <si>
-    <t>ACCUMULATION</t>
+    <t>SCHOTT</t>
+  </si>
+  <si>
+    <t>CERVO1</t>
+  </si>
+  <si>
+    <t>SALTY-TURTLE</t>
+  </si>
+  <si>
+    <t>MITOPSY</t>
+  </si>
+  <si>
+    <t>MitoCardioFer</t>
+  </si>
+  <si>
+    <t>First-BLINDOS</t>
+  </si>
+  <si>
+    <t>IMPROVE</t>
+  </si>
+  <si>
+    <t>HOME-CoV</t>
+  </si>
+  <si>
+    <t>AzyMR</t>
+  </si>
+  <si>
+    <t>MIDRID</t>
   </si>
   <si>
     <t>ACTRAMAT-D</t>
   </si>
   <si>
-    <t>AzyMR</t>
-  </si>
-  <si>
-    <t>MIDRID</t>
-  </si>
-  <si>
-    <t>SALTY-TURTLE</t>
-  </si>
-  <si>
-    <t>SCHOTT</t>
-  </si>
-  <si>
-    <t>IMPROVE</t>
-  </si>
-  <si>
-    <t>HOME-CoV</t>
-  </si>
-  <si>
-    <t>First-BLINDOS</t>
-  </si>
-  <si>
-    <t>MITOPSY</t>
-  </si>
-  <si>
-    <t>MitoCardioFer</t>
-  </si>
-  <si>
-    <t>CERVO1</t>
+    <t>EMI HiPo</t>
   </si>
   <si>
     <t>DELTA</t>
   </si>
   <si>
+    <t>CDSII</t>
+  </si>
+  <si>
+    <t>SAPHIR</t>
+  </si>
+  <si>
+    <t>Taïso-Park</t>
+  </si>
+  <si>
     <t>PIRAAT</t>
   </si>
   <si>
-    <t>SAPHIR</t>
-  </si>
-  <si>
-    <t>CDSII</t>
-  </si>
-  <si>
-    <t>Taïso-Park</t>
-  </si>
-  <si>
-    <t>EMI HiPo</t>
-  </si>
-  <si>
     <t>VELVET</t>
   </si>
   <si>
+    <t>MacroSAS</t>
+  </si>
+  <si>
+    <t>RACO</t>
+  </si>
+  <si>
+    <t>DOKTORBRAU</t>
+  </si>
+  <si>
+    <t>DOUCREA</t>
+  </si>
+  <si>
+    <t>COMIX-R</t>
+  </si>
+  <si>
+    <t>First-SEDAN</t>
+  </si>
+  <si>
+    <t>TDAH-DRM</t>
+  </si>
+  <si>
+    <t>CAUSED</t>
+  </si>
+  <si>
     <t>CASTING</t>
   </si>
   <si>
-    <t>DOKTORBRAU</t>
-  </si>
-  <si>
-    <t>TDAH-DRM</t>
-  </si>
-  <si>
-    <t>MacroSAS</t>
-  </si>
-  <si>
-    <t>CAUSED</t>
-  </si>
-  <si>
-    <t>COMIX-R</t>
-  </si>
-  <si>
-    <t>RACO</t>
-  </si>
-  <si>
-    <t>DOUCREA</t>
-  </si>
-  <si>
-    <t>First-SEDAN</t>
+    <t>COLONIA</t>
   </si>
   <si>
     <t>TEMPUS</t>
   </si>
   <si>
+    <t>eCARE</t>
+  </si>
+  <si>
+    <t>MENABREA</t>
+  </si>
+  <si>
+    <t>AutoSelenium</t>
+  </si>
+  <si>
     <t>ALLERGORAL</t>
   </si>
   <si>
-    <t>eCARE</t>
-  </si>
-  <si>
-    <t>MENABREA</t>
+    <t>EXODYS</t>
   </si>
   <si>
     <t>PABLOS</t>
   </si>
   <si>
-    <t>COLONIA</t>
-  </si>
-  <si>
-    <t>EXODYS</t>
-  </si>
-  <si>
-    <t>AutoSelenium</t>
-  </si>
-  <si>
     <t>CluPPFeN</t>
   </si>
   <si>
+    <t>ConFIRM</t>
+  </si>
+  <si>
     <t>CETOREIN</t>
   </si>
   <si>
     <t>BioScoreSMP</t>
-  </si>
-  <si>
-    <t>ConFIRM</t>
-  </si>
-  <si>
-    <t>AGIR</t>
-  </si>
-  <si>
-    <t>DasaCBF</t>
-  </si>
-  <si>
-    <t>LiRoPep</t>
   </si>
   <si>
     <t>EPO-ICU-FS</t>
@@ -1010,15 +1001,24 @@
     <t>DYVA-AAGG</t>
   </si>
   <si>
+    <t>AGIR</t>
+  </si>
+  <si>
+    <t>DasaCBF</t>
+  </si>
+  <si>
+    <t>LiRoPep</t>
+  </si>
+  <si>
     <t>DRUG</t>
   </si>
   <si>
+    <t>PROCEDURE</t>
+  </si>
+  <si>
     <t>DEVICE</t>
   </si>
   <si>
-    <t>PROCEDURE</t>
-  </si>
-  <si>
     <t>OTHER</t>
   </si>
   <si>
@@ -1028,16 +1028,16 @@
     <t>GENETIC</t>
   </si>
   <si>
+    <t>RADIATION</t>
+  </si>
+  <si>
     <t>BEHAVIORAL</t>
   </si>
   <si>
-    <t>RADIATION</t>
+    <t>BIOLOGICAL</t>
   </si>
   <si>
     <t>DIAGNOSTIC_TEST</t>
-  </si>
-  <si>
-    <t>BIOLOGICAL</t>
   </si>
 </sst>
 </file>
@@ -1466,9 +1466,6 @@
       <c r="G3" t="s">
         <v>139</v>
       </c>
-      <c r="H3" t="s">
-        <v>236</v>
-      </c>
       <c r="I3" t="s">
         <v>330</v>
       </c>
@@ -1489,6 +1486,9 @@
       <c r="G4" t="s">
         <v>140</v>
       </c>
+      <c r="H4" t="s">
+        <v>236</v>
+      </c>
       <c r="I4" t="s">
         <v>331</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>142</v>
       </c>
       <c r="I6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1576,7 +1576,7 @@
         <v>238</v>
       </c>
       <c r="I8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1599,15 +1599,15 @@
         <v>239</v>
       </c>
       <c r="I9" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
@@ -1618,19 +1618,16 @@
       <c r="G10" t="s">
         <v>146</v>
       </c>
-      <c r="H10" t="s">
-        <v>240</v>
-      </c>
       <c r="I10" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
@@ -1638,19 +1635,19 @@
       <c r="F11" t="s">
         <v>125</v>
       </c>
-      <c r="G11" t="s">
-        <v>147</v>
+      <c r="H11" t="s">
+        <v>240</v>
       </c>
       <c r="I11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
@@ -1658,19 +1655,22 @@
       <c r="F12" t="s">
         <v>125</v>
       </c>
+      <c r="G12" t="s">
+        <v>147</v>
+      </c>
       <c r="H12" t="s">
         <v>241</v>
       </c>
       <c r="I12" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1681,8 +1681,11 @@
       <c r="G13" t="s">
         <v>148</v>
       </c>
+      <c r="H13" t="s">
+        <v>242</v>
+      </c>
       <c r="I13" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1702,18 +1705,18 @@
         <v>149</v>
       </c>
       <c r="H14" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I14" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
@@ -1724,11 +1727,8 @@
       <c r="G15" t="s">
         <v>150</v>
       </c>
-      <c r="H15" t="s">
-        <v>243</v>
-      </c>
       <c r="I15" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1774,7 +1774,7 @@
         <v>245</v>
       </c>
       <c r="I17" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1790,6 +1790,9 @@
       <c r="F18" t="s">
         <v>127</v>
       </c>
+      <c r="G18" t="s">
+        <v>153</v>
+      </c>
       <c r="H18" t="s">
         <v>246</v>
       </c>
@@ -1810,9 +1813,6 @@
       <c r="F19" t="s">
         <v>127</v>
       </c>
-      <c r="G19" t="s">
-        <v>153</v>
-      </c>
       <c r="H19" t="s">
         <v>247</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>248</v>
       </c>
       <c r="I20" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1868,10 +1868,10 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C22" t="s">
         <v>37</v>
@@ -1886,7 +1886,7 @@
         <v>250</v>
       </c>
       <c r="I22" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1909,15 +1909,15 @@
         <v>251</v>
       </c>
       <c r="I23" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C24" t="s">
         <v>39</v>
@@ -1932,15 +1932,15 @@
         <v>252</v>
       </c>
       <c r="I24" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C25" t="s">
         <v>40</v>
@@ -1955,15 +1955,15 @@
         <v>253</v>
       </c>
       <c r="I25" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
         <v>41</v>
@@ -1978,7 +1978,7 @@
         <v>254</v>
       </c>
       <c r="I26" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2001,7 +2001,7 @@
         <v>255</v>
       </c>
       <c r="I27" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2024,7 +2024,7 @@
         <v>256</v>
       </c>
       <c r="I28" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2047,15 +2047,15 @@
         <v>257</v>
       </c>
       <c r="I29" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C30" t="s">
         <v>45</v>
@@ -2093,7 +2093,7 @@
         <v>259</v>
       </c>
       <c r="I31" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2116,15 +2116,15 @@
         <v>260</v>
       </c>
       <c r="I32" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C33" t="s">
         <v>48</v>
@@ -2139,15 +2139,15 @@
         <v>261</v>
       </c>
       <c r="I33" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C34" t="s">
         <v>49</v>
@@ -2162,53 +2162,56 @@
         <v>262</v>
       </c>
       <c r="I34" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C35" t="s">
         <v>50</v>
       </c>
+      <c r="D35" t="s">
+        <v>113</v>
+      </c>
       <c r="F35" t="s">
         <v>130</v>
       </c>
+      <c r="G35" t="s">
+        <v>169</v>
+      </c>
       <c r="H35" t="s">
         <v>263</v>
       </c>
       <c r="I35" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C36" t="s">
         <v>51</v>
       </c>
-      <c r="D36" t="s">
-        <v>113</v>
-      </c>
       <c r="F36" t="s">
         <v>130</v>
       </c>
       <c r="G36" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H36" t="s">
         <v>264</v>
       </c>
       <c r="I36" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2225,13 +2228,13 @@
         <v>130</v>
       </c>
       <c r="G37" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H37" t="s">
         <v>265</v>
       </c>
       <c r="I37" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2248,13 +2251,13 @@
         <v>130</v>
       </c>
       <c r="G38" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H38" t="s">
         <v>266</v>
       </c>
       <c r="I38" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2270,14 +2273,11 @@
       <c r="F39" t="s">
         <v>130</v>
       </c>
-      <c r="G39" t="s">
-        <v>172</v>
-      </c>
       <c r="H39" t="s">
         <v>267</v>
       </c>
       <c r="I39" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2300,7 +2300,7 @@
         <v>268</v>
       </c>
       <c r="I40" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2339,22 +2339,19 @@
       <c r="F42" t="s">
         <v>131</v>
       </c>
-      <c r="G42" t="s">
-        <v>175</v>
-      </c>
       <c r="H42" t="s">
         <v>270</v>
       </c>
       <c r="I42" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C43" t="s">
         <v>58</v>
@@ -2362,19 +2359,22 @@
       <c r="F43" t="s">
         <v>131</v>
       </c>
+      <c r="G43" t="s">
+        <v>175</v>
+      </c>
       <c r="H43" t="s">
         <v>271</v>
       </c>
       <c r="I43" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C44" t="s">
         <v>59</v>
@@ -2389,7 +2389,7 @@
         <v>272</v>
       </c>
       <c r="I44" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2412,15 +2412,15 @@
         <v>273</v>
       </c>
       <c r="I45" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C46" t="s">
         <v>61</v>
@@ -2435,15 +2435,15 @@
         <v>274</v>
       </c>
       <c r="I46" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C47" t="s">
         <v>62</v>
@@ -2463,10 +2463,10 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C48" t="s">
         <v>63</v>
@@ -2481,15 +2481,15 @@
         <v>276</v>
       </c>
       <c r="I48" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C49" t="s">
         <v>64</v>
@@ -2504,7 +2504,7 @@
         <v>277</v>
       </c>
       <c r="I49" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2527,7 +2527,7 @@
         <v>278</v>
       </c>
       <c r="I50" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2550,15 +2550,15 @@
         <v>279</v>
       </c>
       <c r="I51" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C52" t="s">
         <v>67</v>
@@ -2573,15 +2573,15 @@
         <v>280</v>
       </c>
       <c r="I52" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C53" t="s">
         <v>68</v>
@@ -2606,8 +2606,8 @@
       <c r="B54" t="s">
         <v>16</v>
       </c>
-      <c r="C54" t="s">
-        <v>69</v>
+      <c r="D54" t="s">
+        <v>114</v>
       </c>
       <c r="F54" t="s">
         <v>133</v>
@@ -2618,19 +2618,16 @@
       <c r="H54" t="s">
         <v>282</v>
       </c>
-      <c r="I54" t="s">
-        <v>337</v>
-      </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C55" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F55" t="s">
         <v>133</v>
@@ -2642,7 +2639,7 @@
         <v>283</v>
       </c>
       <c r="I55" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2653,7 +2650,7 @@
         <v>13</v>
       </c>
       <c r="C56" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F56" t="s">
         <v>133</v>
@@ -2665,7 +2662,7 @@
         <v>284</v>
       </c>
       <c r="I56" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2676,7 +2673,7 @@
         <v>13</v>
       </c>
       <c r="C57" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F57" t="s">
         <v>133</v>
@@ -2688,18 +2685,18 @@
         <v>285</v>
       </c>
       <c r="I57" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B58" t="s">
-        <v>16</v>
-      </c>
-      <c r="D58" t="s">
-        <v>114</v>
+        <v>13</v>
+      </c>
+      <c r="C58" t="s">
+        <v>72</v>
       </c>
       <c r="F58" t="s">
         <v>133</v>
@@ -2710,17 +2707,23 @@
       <c r="H58" t="s">
         <v>286</v>
       </c>
+      <c r="I58" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C59" t="s">
         <v>73</v>
       </c>
+      <c r="D59" t="s">
+        <v>115</v>
+      </c>
       <c r="F59" t="s">
         <v>133</v>
       </c>
@@ -2731,15 +2734,15 @@
         <v>287</v>
       </c>
       <c r="I59" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B60" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C60" t="s">
         <v>74</v>
@@ -2754,22 +2757,19 @@
         <v>288</v>
       </c>
       <c r="I60" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C61" t="s">
         <v>75</v>
       </c>
-      <c r="D61" t="s">
-        <v>115</v>
-      </c>
       <c r="F61" t="s">
         <v>133</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>289</v>
       </c>
       <c r="I61" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2803,7 +2803,7 @@
         <v>290</v>
       </c>
       <c r="I62" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2826,15 +2826,15 @@
         <v>291</v>
       </c>
       <c r="I63" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C64" t="s">
         <v>78</v>
@@ -2849,15 +2849,15 @@
         <v>292</v>
       </c>
       <c r="I64" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C65" t="s">
         <v>79</v>
@@ -2877,10 +2877,10 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B66" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C66" t="s">
         <v>80</v>
@@ -2895,15 +2895,15 @@
         <v>294</v>
       </c>
       <c r="I66" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C67" t="s">
         <v>81</v>
@@ -2915,7 +2915,7 @@
         <v>199</v>
       </c>
       <c r="I67" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2938,7 +2938,7 @@
         <v>295</v>
       </c>
       <c r="I68" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2961,7 +2961,7 @@
         <v>296</v>
       </c>
       <c r="I69" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2980,16 +2980,19 @@
       <c r="G70" t="s">
         <v>202</v>
       </c>
+      <c r="H70" t="s">
+        <v>297</v>
+      </c>
       <c r="I70" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C71" t="s">
         <v>85</v>
@@ -3000,19 +3003,16 @@
       <c r="G71" t="s">
         <v>203</v>
       </c>
-      <c r="H71" t="s">
-        <v>297</v>
-      </c>
       <c r="I71" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C72" t="s">
         <v>86</v>
@@ -3027,7 +3027,7 @@
         <v>298</v>
       </c>
       <c r="I72" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -3050,15 +3050,15 @@
         <v>299</v>
       </c>
       <c r="I73" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B74" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C74" t="s">
         <v>88</v>
@@ -3119,7 +3119,7 @@
         <v>302</v>
       </c>
       <c r="I76" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3165,7 +3165,7 @@
         <v>304</v>
       </c>
       <c r="I78" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3188,7 +3188,7 @@
         <v>305</v>
       </c>
       <c r="I79" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3211,7 +3211,7 @@
         <v>306</v>
       </c>
       <c r="I80" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -3234,15 +3234,15 @@
         <v>307</v>
       </c>
       <c r="I81" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C82" t="s">
         <v>96</v>
@@ -3257,7 +3257,7 @@
         <v>308</v>
       </c>
       <c r="I82" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3280,7 +3280,7 @@
         <v>309</v>
       </c>
       <c r="I83" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -3372,7 +3372,7 @@
         <v>313</v>
       </c>
       <c r="I87" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3395,7 +3395,7 @@
         <v>314</v>
       </c>
       <c r="I88" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3418,7 +3418,7 @@
         <v>315</v>
       </c>
       <c r="I89" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3441,7 +3441,7 @@
         <v>316</v>
       </c>
       <c r="I90" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3460,11 +3460,8 @@
       <c r="G91" t="s">
         <v>223</v>
       </c>
-      <c r="H91" t="s">
-        <v>317</v>
-      </c>
       <c r="I91" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3484,18 +3481,18 @@
         <v>224</v>
       </c>
       <c r="H92" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I92" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C93" t="s">
         <v>107</v>
@@ -3506,8 +3503,11 @@
       <c r="G93" t="s">
         <v>225</v>
       </c>
+      <c r="H93" t="s">
+        <v>318</v>
+      </c>
       <c r="I93" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3530,15 +3530,15 @@
         <v>319</v>
       </c>
       <c r="I94" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B95" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C95" t="s">
         <v>109</v>
@@ -3553,18 +3553,18 @@
         <v>320</v>
       </c>
       <c r="I95" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B96" t="s">
-        <v>14</v>
-      </c>
-      <c r="C96" t="s">
-        <v>110</v>
+        <v>13</v>
+      </c>
+      <c r="D96" t="s">
+        <v>116</v>
       </c>
       <c r="G96" t="s">
         <v>228</v>
@@ -3572,9 +3572,6 @@
       <c r="H96" t="s">
         <v>321</v>
       </c>
-      <c r="I96" t="s">
-        <v>331</v>
-      </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" t="s">
@@ -3583,8 +3580,8 @@
       <c r="B97" t="s">
         <v>13</v>
       </c>
-      <c r="C97" t="s">
-        <v>111</v>
+      <c r="D97" t="s">
+        <v>117</v>
       </c>
       <c r="G97" t="s">
         <v>229</v>
@@ -3592,9 +3589,6 @@
       <c r="H97" t="s">
         <v>322</v>
       </c>
-      <c r="I97" t="s">
-        <v>329</v>
-      </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" t="s">
@@ -3603,8 +3597,8 @@
       <c r="B98" t="s">
         <v>13</v>
       </c>
-      <c r="C98" t="s">
-        <v>112</v>
+      <c r="D98" t="s">
+        <v>118</v>
       </c>
       <c r="G98" t="s">
         <v>230</v>
@@ -3612,9 +3606,6 @@
       <c r="H98" t="s">
         <v>323</v>
       </c>
-      <c r="I98" t="s">
-        <v>329</v>
-      </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" t="s">
@@ -3624,7 +3615,7 @@
         <v>13</v>
       </c>
       <c r="D99" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G99" t="s">
         <v>231</v>
@@ -3641,7 +3632,7 @@
         <v>13</v>
       </c>
       <c r="D100" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G100" t="s">
         <v>232</v>
@@ -3652,13 +3643,13 @@
     </row>
     <row r="101" spans="1:9">
       <c r="A101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B101" t="s">
-        <v>13</v>
-      </c>
-      <c r="D101" t="s">
-        <v>118</v>
+        <v>14</v>
+      </c>
+      <c r="C101" t="s">
+        <v>110</v>
       </c>
       <c r="G101" t="s">
         <v>233</v>
@@ -3666,6 +3657,9 @@
       <c r="H101" t="s">
         <v>326</v>
       </c>
+      <c r="I101" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" t="s">
@@ -3674,8 +3668,8 @@
       <c r="B102" t="s">
         <v>13</v>
       </c>
-      <c r="D102" t="s">
-        <v>119</v>
+      <c r="C102" t="s">
+        <v>111</v>
       </c>
       <c r="G102" t="s">
         <v>234</v>
@@ -3683,6 +3677,9 @@
       <c r="H102" t="s">
         <v>327</v>
       </c>
+      <c r="I102" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" t="s">
@@ -3691,14 +3688,17 @@
       <c r="B103" t="s">
         <v>13</v>
       </c>
-      <c r="D103" t="s">
-        <v>120</v>
+      <c r="C103" t="s">
+        <v>112</v>
       </c>
       <c r="G103" t="s">
         <v>235</v>
       </c>
       <c r="H103" t="s">
         <v>328</v>
+      </c>
+      <c r="I103" t="s">
+        <v>329</v>
       </c>
     </row>
   </sheetData>

--- a/publipostage2/0250ngj72/liste_essais_cliniques_identifies_0250ngj72.xlsx
+++ b/publipostage2/0250ngj72/liste_essais_cliniques_identifies_0250ngj72.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="350">
   <si>
     <t>statut</t>
   </si>
@@ -55,76 +55,79 @@
     <t>2</t>
   </si>
   <si>
-    <t>4: pas de résultats postés ni publiés</t>
-  </si>
-  <si>
-    <t>3: résultats postés ou publiés après les 36 mois</t>
-  </si>
-  <si>
-    <t>1: résultats postés ou publiés dans les 12 mois</t>
-  </si>
-  <si>
-    <t>2: résultats postés ou publiés entre 12 et 36 mois</t>
+    <t>4 : pas de résultats postés ni publiés</t>
+  </si>
+  <si>
+    <t>3 : résultats postés ou publiés après les 36 mois</t>
+  </si>
+  <si>
+    <t>1 : résultats postés ou publiés dans les 12 mois</t>
+  </si>
+  <si>
+    <t>2 : résultats postés ou publiés entre 12 et 36 mois</t>
   </si>
   <si>
     <t>NCT00188071</t>
   </si>
   <si>
+    <t>NCT00188058</t>
+  </si>
+  <si>
     <t>NCT00188032</t>
   </si>
   <si>
-    <t>NCT00188058</t>
-  </si>
-  <si>
     <t>NCT00262379</t>
   </si>
   <si>
     <t>NCT01068886</t>
   </si>
   <si>
+    <t>NCT00485147</t>
+  </si>
+  <si>
     <t>NCT01052974</t>
   </si>
   <si>
     <t>NCT00648089</t>
   </si>
   <si>
-    <t>NCT00485147</t>
-  </si>
-  <si>
     <t>NCT01592812</t>
   </si>
   <si>
+    <t>NCT01390129</t>
+  </si>
+  <si>
     <t>NCT01149278</t>
   </si>
   <si>
-    <t>NCT01390129</t>
+    <t>NCT00188019</t>
   </si>
   <si>
     <t>NCT01549691</t>
   </si>
   <si>
+    <t>NCT01572961</t>
+  </si>
+  <si>
+    <t>NCT02179411</t>
+  </si>
+  <si>
     <t>NCT01390142</t>
   </si>
   <si>
-    <t>NCT00188019</t>
-  </si>
-  <si>
-    <t>NCT01572961</t>
-  </si>
-  <si>
-    <t>NCT02179411</t>
-  </si>
-  <si>
     <t>NCT02704247</t>
   </si>
   <si>
+    <t>NCT01300845</t>
+  </si>
+  <si>
+    <t>NCT02120144</t>
+  </si>
+  <si>
     <t>NCT02003157</t>
   </si>
   <si>
-    <t>NCT01300845</t>
-  </si>
-  <si>
-    <t>NCT02120144</t>
+    <t>NCT02086409</t>
   </si>
   <si>
     <t>NCT02687659</t>
@@ -133,202 +136,208 @@
     <t>NCT02549053</t>
   </si>
   <si>
+    <t>NCT01426607</t>
+  </si>
+  <si>
     <t>NCT02538120</t>
   </si>
   <si>
-    <t>NCT01426607</t>
-  </si>
-  <si>
-    <t>NCT02086409</t>
+    <t>NCT02704260</t>
   </si>
   <si>
     <t>NCT02072655</t>
   </si>
   <si>
+    <t>NCT02834351</t>
+  </si>
+  <si>
+    <t>NCT01409694</t>
+  </si>
+  <si>
+    <t>NCT02556658</t>
+  </si>
+  <si>
+    <t>NCT02152176</t>
+  </si>
+  <si>
+    <t>NCT02379234</t>
+  </si>
+  <si>
     <t>NCT02684149</t>
   </si>
   <si>
-    <t>NCT02834351</t>
-  </si>
-  <si>
-    <t>NCT02379234</t>
-  </si>
-  <si>
-    <t>NCT02152176</t>
-  </si>
-  <si>
-    <t>NCT02556658</t>
-  </si>
-  <si>
-    <t>NCT02704260</t>
-  </si>
-  <si>
-    <t>NCT01409694</t>
+    <t>NCT02463604</t>
   </si>
   <si>
     <t>NCT02302456</t>
   </si>
   <si>
+    <t>NCT02997436</t>
+  </si>
+  <si>
+    <t>NCT02550275</t>
+  </si>
+  <si>
+    <t>NCT03070860</t>
+  </si>
+  <si>
     <t>NCT02501408</t>
   </si>
   <si>
-    <t>NCT03070860</t>
-  </si>
-  <si>
     <t>NCT02815956</t>
   </si>
   <si>
-    <t>NCT02550275</t>
-  </si>
-  <si>
-    <t>NCT02997436</t>
-  </si>
-  <si>
-    <t>NCT02463604</t>
-  </si>
-  <si>
     <t>NCT02134561</t>
   </si>
   <si>
+    <t>NCT02650232</t>
+  </si>
+  <si>
+    <t>NCT02161965</t>
+  </si>
+  <si>
     <t>NCT02878460</t>
   </si>
   <si>
-    <t>NCT02161965</t>
-  </si>
-  <si>
-    <t>NCT02650232</t>
-  </si>
-  <si>
     <t>NCT02317003</t>
   </si>
   <si>
+    <t>NCT03538080</t>
+  </si>
+  <si>
+    <t>NCT02689557</t>
+  </si>
+  <si>
+    <t>NCT03631797</t>
+  </si>
+  <si>
+    <t>NCT03356379</t>
+  </si>
+  <si>
     <t>NCT02861924</t>
   </si>
   <si>
     <t>NCT03305198</t>
   </si>
   <si>
-    <t>NCT03538080</t>
-  </si>
-  <si>
-    <t>NCT02689557</t>
-  </si>
-  <si>
-    <t>NCT03356379</t>
-  </si>
-  <si>
     <t>NCT02811237</t>
   </si>
   <si>
-    <t>NCT03631797</t>
+    <t>NCT04146636</t>
+  </si>
+  <si>
+    <t>NCT03615833</t>
   </si>
   <si>
     <t>NCT03010943</t>
   </si>
   <si>
+    <t>NCT02475122</t>
+  </si>
+  <si>
     <t>NCT03568201</t>
   </si>
   <si>
+    <t>NCT03541213</t>
+  </si>
+  <si>
+    <t>NCT04338841</t>
+  </si>
+  <si>
+    <t>NCT03635294</t>
+  </si>
+  <si>
     <t>NCT03832218</t>
   </si>
   <si>
-    <t>NCT03541213</t>
-  </si>
-  <si>
-    <t>NCT03615833</t>
-  </si>
-  <si>
-    <t>NCT04146636</t>
-  </si>
-  <si>
-    <t>NCT04338841</t>
-  </si>
-  <si>
-    <t>NCT02475122</t>
-  </si>
-  <si>
-    <t>NCT03635294</t>
-  </si>
-  <si>
     <t>NCT03433989</t>
   </si>
   <si>
     <t>NCT03158402</t>
   </si>
   <si>
+    <t>NCT04205032</t>
+  </si>
+  <si>
     <t>NCT04247477</t>
   </si>
   <si>
+    <t>NCT04045925</t>
+  </si>
+  <si>
     <t>NCT04657471</t>
   </si>
   <si>
-    <t>NCT04205032</t>
-  </si>
-  <si>
     <t>NCT04548141</t>
   </si>
   <si>
-    <t>NCT04045925</t>
-  </si>
-  <si>
     <t>NCT04344041</t>
   </si>
   <si>
     <t>NCT03357367</t>
   </si>
   <si>
+    <t>NCT03800771</t>
+  </si>
+  <si>
+    <t>NCT04773899</t>
+  </si>
+  <si>
+    <t>NCT04064489</t>
+  </si>
+  <si>
+    <t>NCT04929275</t>
+  </si>
+  <si>
     <t>NCT03703765</t>
   </si>
   <si>
+    <t>NCT04196738</t>
+  </si>
+  <si>
+    <t>NCT05365295</t>
+  </si>
+  <si>
     <t>NCT04235023</t>
   </si>
   <si>
-    <t>NCT04929275</t>
-  </si>
-  <si>
-    <t>NCT03800771</t>
-  </si>
-  <si>
     <t>NCT04164342</t>
   </si>
   <si>
-    <t>NCT04196738</t>
-  </si>
-  <si>
     <t>NCT03362710</t>
   </si>
   <si>
-    <t>NCT05365295</t>
-  </si>
-  <si>
-    <t>NCT04773899</t>
-  </si>
-  <si>
-    <t>NCT04064489</t>
+    <t>NCT04459182</t>
+  </si>
+  <si>
+    <t>NCT03715738</t>
+  </si>
+  <si>
+    <t>NCT05543655</t>
+  </si>
+  <si>
+    <t>NCT05345639</t>
+  </si>
+  <si>
+    <t>NCT04080622</t>
+  </si>
+  <si>
+    <t>NCT04157790</t>
+  </si>
+  <si>
+    <t>NCT04378335</t>
+  </si>
+  <si>
+    <t>NCT05441176</t>
   </si>
   <si>
     <t>NCT03840434</t>
   </si>
   <si>
-    <t>NCT05441176</t>
-  </si>
-  <si>
-    <t>NCT04157790</t>
-  </si>
-  <si>
-    <t>NCT03715738</t>
-  </si>
-  <si>
-    <t>NCT04080622</t>
-  </si>
-  <si>
-    <t>NCT04378335</t>
-  </si>
-  <si>
-    <t>NCT04459182</t>
-  </si>
-  <si>
-    <t>NCT05345639</t>
+    <t>NCT04316520</t>
+  </si>
+  <si>
+    <t>NCT06046898</t>
   </si>
   <si>
     <t>NCT04881201</t>
@@ -337,10 +346,13 @@
     <t>NCT05584930</t>
   </si>
   <si>
+    <t>NCT06206031</t>
+  </si>
+  <si>
     <t>NCT03362489</t>
   </si>
   <si>
-    <t>NCT04316520</t>
+    <t>NCT03355274</t>
   </si>
   <si>
     <t>NCT03869476</t>
@@ -349,33 +361,33 @@
     <t>NCT02393014</t>
   </si>
   <si>
+    <t>NCT00727935</t>
+  </si>
+  <si>
     <t>NCT02113319</t>
   </si>
   <si>
-    <t>NCT00727935</t>
+    <t>2011-002553-65</t>
   </si>
   <si>
     <t>2014-001748-39</t>
   </si>
   <si>
+    <t>2018-004146-41</t>
+  </si>
+  <si>
     <t>2019-002571-33</t>
   </si>
   <si>
-    <t>2018-004146-41</t>
+    <t>2020-001602-34</t>
   </si>
   <si>
     <t>2021-003770-30</t>
   </si>
   <si>
-    <t>2020-001602-34</t>
-  </si>
-  <si>
     <t>2016-002253-38</t>
   </si>
   <si>
-    <t>2015-001342-28</t>
-  </si>
-  <si>
     <t>2011-002387-24</t>
   </si>
   <si>
@@ -433,48 +445,48 @@
     <t>Postoperative Pain After Medical Abortion Under Local Anesthesia : a Prospective and Randomized Trial Comparing Several Analgesic Regimen</t>
   </si>
   <si>
+    <t>Comparison of Two Strategies for Setting Positive End-Expiratory Pressure in Acute Lung Injury/ Acute Respiratory Distress Syndrome (ExPress Study).</t>
+  </si>
+  <si>
     <t>Strategies for Suspected Pulmonary Embolism in Emergency Departments - SPEED Study</t>
   </si>
   <si>
-    <t>Comparison of Two Strategies for Setting Positive End-Expiratory Pressure in Acute Lung Injury/ Acute Respiratory Distress Syndrome (ExPress Study).</t>
-  </si>
-  <si>
     <t>Multicenter Study, Randomized and Pragmatic, Comparing Two Therapeutic Strategies : Use or Non-use of Epoetin Beta in Patients Infected by Chronic Hepatitis C and Treated by Combination Therapy Peginterferon Alfa-2a Plus Ribavirin</t>
   </si>
   <si>
     <t>External Pancreatic Duct Stent After Pancreaticoduodenectomy: a Prospective Randomized Multicenter Trial</t>
   </si>
   <si>
+    <t>Study of Human Locomotion With Global Positioning System. Application to Patients With Peripheral Arterial Disease</t>
+  </si>
+  <si>
     <t>Perioperative Analgesia by Femoral Perineural Catheter for Femoral Neck Fracture - Study KTcol -</t>
   </si>
   <si>
     <t>ErythroPOietin in Myocardial Infarction</t>
   </si>
   <si>
-    <t>Study of Human Locomotion With Global Positioning System. Application to Patients With Peripheral Arterial Disease</t>
-  </si>
-  <si>
     <t>Investigation of the Arterial Effects of the Veinoplus(r) Stimlator Device.</t>
   </si>
   <si>
     <t>Remote Ischemic Preconditioning in Aortic Valve Surgery (RIP-Valve)</t>
   </si>
   <si>
+    <t>Evaluation Des méthodes de dépistage du Paragangliome héréditaire Chez Les Sujets prédisposés génétiquement</t>
+  </si>
+  <si>
     <t>Assessment of Two Modes of Premedication in Surgery - PREMED Study</t>
   </si>
   <si>
+    <t>Amélioration Des Techniques d'étude de la Micro-cirulation cutanée Chez Des Sujets Sains</t>
+  </si>
+  <si>
+    <t>Study of the Renal Perfusion in Healthy Volunteers and Renal Transplant Recipients During an Orthostatic Stress</t>
+  </si>
+  <si>
     <t>Remote Ischemic Preconditioning Combined to Local Ischemic Postconditioning in Acute Myocardial Infarction (RIRE-1)</t>
   </si>
   <si>
-    <t>Evaluation Des méthodes de dépistage du Paragangliome héréditaire Chez Les Sujets prédisposés génétiquement</t>
-  </si>
-  <si>
-    <t>Amélioration Des Techniques d'étude de la Micro-cirulation cutanée Chez Des Sujets Sains</t>
-  </si>
-  <si>
-    <t>Study of the Renal Perfusion in Healthy Volunteers and Renal Transplant Recipients During an Orthostatic Stress</t>
-  </si>
-  <si>
     <t>Evaluation of CARDIOSPACE System in Healthy Volunteers for Physiological Research in Space Environment</t>
   </si>
   <si>
@@ -484,206 +496,215 @@
     <t>Effect of Observation Plus Imagination of Gait on Stride Variability in Young and Older Adults</t>
   </si>
   <si>
+    <t>Dairy Product, Calcium &amp; Vitamin D Supplementation and Cognitive-motor Function</t>
+  </si>
+  <si>
     <t>TEMIS: a Pilot Study to Evaluate a Device to Characterize Ambulatory Physical Activity</t>
   </si>
   <si>
     <t>Prevalence of Human Papillomavirus in Barrett Esophagus Compared With Controls</t>
   </si>
   <si>
+    <t>VASO-AM :Impact of Oral Appliance Therapy on Endothelial Function in Obstructive Sleep Apnea</t>
+  </si>
+  <si>
     <t>Assessment of the Neurovascular Microcirculatory Response in Diabetes Type 1</t>
   </si>
   <si>
-    <t>VASO-AM :Impact of Oral Appliance Therapy on Endothelial Function in Obstructive Sleep Apnea</t>
-  </si>
-  <si>
-    <t>Dairy Product, Calcium &amp; Vitamin D Supplementation and Cognitive-motor Function</t>
+    <t>Endofibrose Vasculaire et génétique</t>
   </si>
   <si>
     <t>Impact of Socio-aesthetic Care in the Quality of Life of Patients Treated for Lymphoma During and After Hospitalization</t>
   </si>
   <si>
+    <t>Atteinte Tissulaire au Cours de l'ischémie Chronique d'Effort. Validation d'un modèle d'étude du Muscle Sartorius Humain</t>
+  </si>
+  <si>
+    <t>Evaluation d'Une stratégie thérapeutique d'Association médicamenteuse Pour la Prise en Charge de la Maladie d'Alzheimer et Des Maladies apparentées au Stade modéré</t>
+  </si>
+  <si>
+    <t>Predicted Level of General Anaesthesia in Hip Fracture Surgery</t>
+  </si>
+  <si>
+    <t>Titration Morphinique autocontrôlée Par le Patient Par un Dispositif mécanique à Usage Unique Versus Administration Par l'infirmière Chez Les Patients Ayant Une Douleur aiguë sévère Aux Urgences.</t>
+  </si>
+  <si>
+    <t>SIMulation for HEmofiltration in Intensive caRe Unit</t>
+  </si>
+  <si>
     <t>Pain Impact Assessment of the Relational Touch During Arterial Puncture in ICU - TORREA</t>
   </si>
   <si>
-    <t>Atteinte Tissulaire au Cours de l'ischémie Chronique d'Effort. Validation d'un modèle d'étude du Muscle Sartorius Humain</t>
-  </si>
-  <si>
-    <t>SIMulation for HEmofiltration in Intensive caRe Unit</t>
-  </si>
-  <si>
-    <t>Titration Morphinique autocontrôlée Par le Patient Par un Dispositif mécanique à Usage Unique Versus Administration Par l'infirmière Chez Les Patients Ayant Une Douleur aiguë sévère Aux Urgences.</t>
-  </si>
-  <si>
-    <t>Predicted Level of General Anaesthesia in Hip Fracture Surgery</t>
-  </si>
-  <si>
-    <t>Endofibrose Vasculaire et génétique</t>
-  </si>
-  <si>
-    <t>Evaluation d'Une stratégie thérapeutique d'Association médicamenteuse Pour la Prise en Charge de la Maladie d'Alzheimer et Des Maladies apparentées au Stade modéré</t>
+    <t>Renal PRotection Against Contrast mEdium-induced nephroPathy in High Risk Patients undErgoing Coronary Angiography</t>
   </si>
   <si>
     <t>Tranexamic Acid for Preventing Postpartum Haemorrhage Following a Vaginal Delivery: a Multicenter Randomised Double Blind Placebo Controlled Trial</t>
   </si>
   <si>
+    <t>Asa Test ; un Nouvel Outil Dans le dépistage du Traitement Par Aspirine ? (This Official Titre is in French and Contains no Spelling Error. English Translation for it Would be : "ASA-test. A New Tool for the Screening of Aspirin Treatment")</t>
+  </si>
+  <si>
+    <t>Glucidic Metabolism, Ossification and Arterial Calcification During PseudoXanthoma Elasticum (PXE)</t>
+  </si>
+  <si>
     <t>Comparaison du Pied Bionique Proprio-Foot® Versus le Pied Habituel Chez Les amputés Tibiaux</t>
   </si>
   <si>
-    <t>Glucidic Metabolism, Ossification and Arterial Calcification During PseudoXanthoma Elasticum (PXE)</t>
-  </si>
-  <si>
     <t>InteresT And Mechanisms of Percutaneous Posterior tIbial Nerve Stimulation to Prevent pOstoperative Ileus in ColorectAl Surgery: A Preliminary Study</t>
   </si>
   <si>
-    <t>Asa Test ; un Nouvel Outil Dans le dépistage du Traitement Par Aspirine ? (This Official Titre is in French and Contains no Spelling Error. English Translation for it Would be : "ASA-test. A New Tool for the Screening of Aspirin Treatment")</t>
-  </si>
-  <si>
-    <t>Renal PRotection Against Contrast mEdium-induced nephroPathy in High Risk Patients undErgoing Coronary Angiography</t>
+    <t>Pilot Study to Evaluate the Somnotouch Device to Quantify Spontaneous Baroreflex Sensitivity in Healthy Subjects and in Patients With Heart Failure</t>
+  </si>
+  <si>
+    <t>The VICTORIA Study (Vascular CalcIfiCation and sTiffness Induced by ORal antIcoAgulation) Comparison Anti-vitamin K Versus Anti-Xa.</t>
   </si>
   <si>
     <t>ORI2 : ORI for hyperOxia Reduction in ICU</t>
   </si>
   <si>
-    <t>The VICTORIA Study (Vascular CalcIfiCation and sTiffness Induced by ORal antIcoAgulation) Comparison Anti-vitamin K Versus Anti-Xa.</t>
-  </si>
-  <si>
-    <t>Pilot Study to Evaluate the Somnotouch Device to Quantify Spontaneous Baroreflex Sensitivity in Healthy Subjects and in Patients With Heart Failure</t>
-  </si>
-  <si>
     <t>Physical Exercise Prescription With PEdometeR in General Practice for Patients With Cardiovascular Risk Factors - The PEPPER Pragmatic Randomised Controlled Trial</t>
   </si>
   <si>
+    <t>Evaluation du pré-marquage Par AccuVein® au Cours Des échographies Doppler de repérage saphène.</t>
+  </si>
+  <si>
+    <t>VEINEX : Venous Investigations During Exercise</t>
+  </si>
+  <si>
+    <t>L'Etude préopératoire de la Microcirculation Pour la prédiction Des Complications après Une Chirurgie Cardiaque Sous Circulation Extracorporelle.</t>
+  </si>
+  <si>
+    <t>Application de l'oxymétrie Dynamique Pour le Diagnostic Des pièges artériels poplités</t>
+  </si>
+  <si>
     <t>Réponse à l'Application d'Une Pression Locale en Laser Speckle Imaging Locally Applied Pressure-induced Vasodilatation</t>
   </si>
   <si>
     <t>BIOlogical Response to Exercise : A Metabolomic Study in Peripheral Artery Disease (BIOR)</t>
   </si>
   <si>
-    <t>Evaluation du pré-marquage Par AccuVein® au Cours Des échographies Doppler de repérage saphène.</t>
-  </si>
-  <si>
-    <t>VEINEX : Venous Investigations During Exercise</t>
-  </si>
-  <si>
-    <t>Application de l'oxymétrie Dynamique Pour le Diagnostic Des pièges artériels poplités</t>
-  </si>
-  <si>
     <t>Criteria for Hospitalization or Outpatient Management of Patients With Pulmonary Embolism, Hestia Rule Versus Simplified PESI Score : an Open-label Controlled Randomized International Trial (HOME-PE)</t>
   </si>
   <si>
-    <t>L'Etude préopératoire de la Microcirculation Pour la prédiction Des Complications après Une Chirurgie Cardiaque Sous Circulation Extracorporelle.</t>
+    <t>Screening in Primary Care of Advanced Liver Fibrosis in NAFLD and/or Alcoholic Patients (IMPROVE Study)</t>
+  </si>
+  <si>
+    <t>Evaluation of a Strategy for Systematic Screening for Vitamin D Deficiency and Treatment in Case of Deficiency, on the Improvement of the Maximum Walking Distance in Patients With Stage 2 Lower Limb Arterial Disease.</t>
+  </si>
+  <si>
+    <t>Chirurgie Eveillee du Cerveau Sous Realite Virtuelle Integree Aux Outils Bloc Operatoire : Etude de Tolerance</t>
+  </si>
+  <si>
+    <t>Prognostic Value of Measuring DsAz by MRI in Cirrhotic Patients on Prophylactic Treatment With β Blocker (AzyMR)</t>
+  </si>
+  <si>
+    <t>Application de l'oxymétrie Dynamique et Des Index de Pression Pour le Diagnostic Des Plicatures Iliaques du Sportif</t>
+  </si>
+  <si>
+    <t>Impact de la Carence Martiale et de Son Traitement Sur le métabolisme Mitochondrial du Cardiomyocyte (MitoCardioFer)</t>
   </si>
   <si>
     <t>Transcutaneous measurement of oxygen during transient hyperoxia 
  Mesure transcutanée de l’oxygène au cours de l’hyperoxie transitoire</t>
   </si>
   <si>
-    <t>Chirurgie Eveillee du Cerveau Sous Realite Virtuelle Integree Aux Outils Bloc Operatoire : Etude de Tolerance</t>
-  </si>
-  <si>
-    <t>Application de l'oxymétrie Dynamique et Des Index de Pression Pour le Diagnostic Des Plicatures Iliaques du Sportif</t>
+    <t>HOME-CoV: Hospitalization or Outpatient ManagEment of Patients With Confirmed or Probable SARS-CoV-2 Infection. A Before and After Implementation of a Consensus Help-decision Making Rule Study</t>
+  </si>
+  <si>
+    <t>Multi-Omics and IPSCs to Improve the Diagnosis of Rare Intellectual Disabilities</t>
   </si>
   <si>
     <t>Executive Function Disorders and Anxio-depressive Symptomatology in Children and Adolescents With Mitochondrial Pathologies</t>
   </si>
   <si>
-    <t>Impact de la Carence Martiale et de Son Traitement Sur le métabolisme Mitochondrial du Cardiomyocyte (MitoCardioFer)</t>
-  </si>
-  <si>
-    <t>Evaluation of a Strategy for Systematic Screening for Vitamin D Deficiency and Treatment in Case of Deficiency, on the Improvement of the Maximum Walking Distance in Patients With Stage 2 Lower Limb Arterial Disease.</t>
-  </si>
-  <si>
-    <t>Screening in Primary Care of Advanced Liver Fibrosis in NAFLD and/or Alcoholic Patients (IMPROVE Study)</t>
-  </si>
-  <si>
-    <t>HOME-CoV: Hospitalization or Outpatient ManagEment of Patients With Confirmed or Probable SARS-CoV-2 Infection. A Before and After Implementation of a Consensus Help-decision Making Rule Study</t>
-  </si>
-  <si>
-    <t>Prognostic Value of Measuring DsAz by MRI in Cirrhotic Patients on Prophylactic Treatment With β Blocker (AzyMR)</t>
-  </si>
-  <si>
-    <t>Multi-Omics and IPSCs to Improve the Diagnosis of Rare Intellectual Disabilities</t>
-  </si>
-  <si>
     <t>Impact of Post-Traumatic Stress Disorder After Pregnancy Loss After 12 Weeks of Gestation (Termination of Pregnancy , Stillbirth, Late Miscarriage)</t>
   </si>
   <si>
     <t>High Intensity Preoperative Inspiratory Muscle Training (IMTHi) Effects on the Perioperative Inflammatory Reaction in Cardiac Surgery With an Associated Biocollection.</t>
   </si>
   <si>
+    <t>Evaluation in Healthy Volunteers of CARDIOSPACE II for Physiological Studies in Space</t>
+  </si>
+  <si>
     <t>Comparison of Different Positive End-expiratory Pressure Titration Strategies Using ELectrical Impedance Tomography in Patients With Acute Respiratory Distress Syndrome : the DELTA Physiological Study</t>
   </si>
   <si>
+    <t>Feasibility Study of the Taïso Practice in Parkinson's Disease</t>
+  </si>
+  <si>
     <t>Hospitalization or Outpatient ManagEment of Patients With Suspected or Confirmed SRAS-CoV-2 Infection: the Revised HOME-CoV Score Study.</t>
   </si>
   <si>
-    <t>Evaluation in Healthy Volunteers of CARDIOSPACE II for Physiological Studies in Space</t>
-  </si>
-  <si>
     <t>Simplification de l'évaluation de l'Activité PHysique Par Interrogatoire Rapide</t>
   </si>
   <si>
-    <t>Feasibility Study of the Taïso Practice in Parkinson's Disease</t>
-  </si>
-  <si>
     <t>COvid-19 and Vitamin D Supplementation: a Multicenter Randomized Controlled Trial of High Dose Versus Standard Dose Vitamin D3 in High-risk COVID-19 Patients (CoVitTrial)</t>
   </si>
   <si>
     <t>Performance du TiVi Pour évaluer la réactivité Microcirculatoire de la Peau à l'Application d'un Courant Galvanique, Effet de l'Aspirine</t>
   </si>
   <si>
+    <t>DOuble tasK Test On ergometeR - Basic Research on Acceptability and Use</t>
+  </si>
+  <si>
+    <t>L'Étude de la Dysfonction endothéliale Dans la Maladie à COVID-19 Chez Des Patients en Soins Critiques.</t>
+  </si>
+  <si>
+    <t>Thromboembolic Risk Stratification by TRIP Score (Cast) to Guide Physicians in Preventive Treatment Prescriptions for Patients With Lower Limb Trauma Requiring Brace or Casting.</t>
+  </si>
+  <si>
+    <t>Feasability and Impact of Enhanced Recovery Programs After Surgery for Small Bowel Obstruction</t>
+  </si>
+  <si>
     <t>Volume Estimation of Lower Limbs Before and After Endovascular Venous Intervention or Conventional Surgery in Venous Disease</t>
   </si>
   <si>
+    <t>Comparison of Volume Assist Control, Dual Mode and Airway Pressure Release Ventilation: A Physiological Study</t>
+  </si>
+  <si>
+    <t>Sensitivity of Children With Attention Deficit/Hyperactivity Disorder to Memory Error Production</t>
+  </si>
+  <si>
     <t>PTP1B Implication in the Vascular Dysfunction Associated With Obstructive Sleep Apnea</t>
   </si>
   <si>
-    <t>Feasability and Impact of Enhanced Recovery Programs After Surgery for Small Bowel Obstruction</t>
-  </si>
-  <si>
-    <t>DOuble tasK Test On ergometeR - Basic Research on Acceptability and Use</t>
-  </si>
-  <si>
     <t>Etude de la prévalence de la Douleur Chronique et de Ses Facteurs de Risque après Une Hospitalisation en réanimation Chirurgicale</t>
   </si>
   <si>
-    <t>Comparison of Volume Assist Control, Dual Mode and Airway Pressure Release Ventilation: A Physiological Study</t>
-  </si>
-  <si>
     <t>Evaluation du Risque Vasculaire Par Mesures Non Invasives en Soins Primaires.</t>
   </si>
   <si>
-    <t>Sensitivity of Children With Attention Deficit/Hyperactivity Disorder to Memory Error Production</t>
-  </si>
-  <si>
-    <t>L'Étude de la Dysfonction endothéliale Dans la Maladie à COVID-19 Chez Des Patients en Soins Critiques.</t>
-  </si>
-  <si>
-    <t>Thromboembolic Risk Stratification by TRIP Score (Cast) to Guide Physicians in Preventive Treatment Prescriptions for Patients With Lower Limb Trauma Requiring Brace or Casting.</t>
+    <t>Circulating Exosomes and Endothelial Dysfunction in Patients With Obstructive Sleep Apneas Hypopneas Syndrome(OSA): EXODYS</t>
+  </si>
+  <si>
+    <t>MEasurement by a Numerical Approach of BREAst Volume MENABREA</t>
+  </si>
+  <si>
+    <t>Impact of Simulation-Based Training on the Safety of Medication Administration</t>
+  </si>
+  <si>
+    <t>Chest Wall Block After Sternotomy: Randomized Controlled Trial in Cardiac Surgery: (PABLOS Study)</t>
+  </si>
+  <si>
+    <t>A Randomized Trial to Evaluate the Efficacy of Selenium for the Prevention of Chemotherapy-induced Mucositis During Autologous Stem Cell Transplantation.</t>
+  </si>
+  <si>
+    <t>Efficacy of the CARE Rule Associated With the HEART Score in Patients With Emergency Chest Pain</t>
+  </si>
+  <si>
+    <t>Assessment of Orality Disorders in Children With Food Allergies</t>
+  </si>
+  <si>
+    <t>TULIP et MASC : Premiers Usages</t>
   </si>
   <si>
     <t>COmpartment Syndrome vaLidation Of Non Invasive Assessment of Tissue Pressure (COLONIA)</t>
   </si>
   <si>
-    <t>TULIP et MASC : Premiers Usages</t>
-  </si>
-  <si>
-    <t>Efficacy of the CARE Rule Associated With the HEART Score in Patients With Emergency Chest Pain</t>
-  </si>
-  <si>
-    <t>MEasurement by a Numerical Approach of BREAst Volume MENABREA</t>
-  </si>
-  <si>
-    <t>A Randomized Trial to Evaluate the Efficacy of Selenium for the Prevention of Chemotherapy-induced Mucositis During Autologous Stem Cell Transplantation.</t>
-  </si>
-  <si>
-    <t>Assessment of Orality Disorders in Children With Food Allergies</t>
-  </si>
-  <si>
-    <t>Circulating Exosomes and Endothelial Dysfunction in Patients With Obstructive Sleep Apneas Hypopneas Syndrome(OSA): EXODYS</t>
-  </si>
-  <si>
-    <t>Chest Wall Block After Sternotomy: Randomized Controlled Trial in Cardiac Surgery: (PABLOS Study)</t>
+    <t>A Pilot Study Evaluating the Tolerability of a Ketogenic Diet With Vitamin Supplementation for Patients Receiving Treatment for Metastatic Renal Cell Carcinoma</t>
+  </si>
+  <si>
+    <t>Performance of Surface Mechanomyography Using a Parasternal Patch to Measure and Detect Respiratory Drive and Effort in Healthy Volunteers - PATCH-MMG</t>
   </si>
   <si>
     <t>Metabolomic Exploration of Dysregulated Lipid Metabolism in MFN2-related CMT2A (CMT2A) Linked to Mitofusin 2</t>
@@ -692,82 +713,84 @@
     <t>Evaluation of Serum Clusterin and Serum PTX3 Assay During Febrile Aplasia in Children Treated in Pediatric Oncology</t>
   </si>
   <si>
+    <t>Use of Intraosseous Doppler Ultrasonography to Study Skeletal Physiology - Echo-Os Study: Exploratory Study Before Its Use in Space Physiology</t>
+  </si>
+  <si>
     <t>Conversion of in Vitro Fertilization Cycles to Intrauterine Inseminations in Patients With a Poor Ovarian Response to Stimulation</t>
   </si>
   <si>
-    <t>A Pilot Study Evaluating the Tolerability of a Ketogenic Diet With Vitamin Supplementation for Patients Receiving Treatment for Metastatic Renal Cell Carcinoma</t>
+    <t>Application De L'oxymétrie Dynamique Pour Le Diagnostic Des Syndromes De Défilés Thoraco-brachiaux Systematic Transcutaneous Oxymetry Use in Thoracic Outlet Syndrom</t>
   </si>
   <si>
     <t>Pilot Study for the Development of a Non-invasive Diagnostic Score to Differentiate Between Essential Thrombocythemia, Premyelofibrosis and Myelofibrosis</t>
-  </si>
-  <si>
-    <t>L’érythropoïétine pour améliorer le devenir des patients de soins intensifs – EPO-ICU-FS</t>
   </si>
   <si>
     <t>COvid-19 and Vitamin D supplementation: a multicenter randomized controlled Trial of high dose versus standard dose vitamin D3 in high-risk COVID-19 patients 
  CoVitTrial- Supplémentation en vitamine D et COVID-19 : essai multicentrique randomisé comparant l’effet d’une forte dose versus une dose standard de vitamine D chez des patients âgés ayant une infection COVID-19 à risque d’aggravation secondaire</t>
   </si>
   <si>
+    <t>L’érythropoïétine pour améliorer le devenir des patients de soins intensifs – EPO-ICU-FS</t>
+  </si>
+  <si>
     <t>Mesure de la clairance plasmatique du iohexol chez les patients sortant de réanimation après insuffisance rénale aiguë  
  Mesure de la clairance plasmatique du iohexol chez les patients sortant de réanimation après insuffisance rénale aiguë</t>
   </si>
   <si>
-    <t>TOMOSCINTIGRAPHIE HYBRIDE AUX LEUCOCYTES MARQUES DANS LE DIAGNOSTIC DES INFECTIONS DE PROTHESES VASCULAIRES._x000D_ Etude LEUCOPRO®_x000D_ 
- TOMOSCINTIGRAPHIE HYBRIDE AUX LEUCOCYTES MARQUES DANS LE DIAGNOSTIC DES INFECTIONS DE PROTHESES VASCULAIRES._x000D_ Etude LEUCOPRO®</t>
-  </si>
-  <si>
     <t>Dyva-AAGG: Dysfonction vasculaire micro et macro vasculaire induite par les traitements anti-angiogéniques : Identification de nouveaux marqueurs pronostics</t>
   </si>
   <si>
     <t>Activité Physique et prévention de la Chute du Patient âGé hospItalisé en Court séjouR: Etude de faisabilité (AGIR)</t>
   </si>
   <si>
+    <t>Comparison Of The Analgesia Obtained By Infiltration Of Lidocaïne 1% And Ropivacaïne 0,75% Versus Placebo For The Joinings Of Episiotomies Among Parturients Under Epidural Analgesia</t>
+  </si>
+  <si>
     <t>An Open-Label, Multicenter, Phase II Study to Assess Dasatinib in Patients With Core Binding Factors Acute Myelogenous Leukemia Refractory to Conventional Chemotherapy or in Molecular Relapse. Intergroupe Français Des leucémie aiguë myéloblastique</t>
   </si>
   <si>
-    <t>Comparison Of The Analgesia Obtained By Infiltration Of Lidocaïne 1% And Ropivacaïne 0,75% Versus Placebo For The Joinings Of Episiotomies Among Parturients Under Epidural Analgesia</t>
-  </si>
-  <si>
     <t>ExPress</t>
   </si>
   <si>
+    <t>Starter-GPS</t>
+  </si>
+  <si>
     <t>KTcol</t>
   </si>
   <si>
     <t>EPOMI</t>
   </si>
   <si>
-    <t>Starter-GPS</t>
+    <t>RIP-Valve</t>
   </si>
   <si>
     <t>SEPSISPAM</t>
   </si>
   <si>
-    <t>RIP-Valve</t>
-  </si>
-  <si>
     <t>PREMED</t>
   </si>
   <si>
+    <t>MICROTEC</t>
+  </si>
+  <si>
+    <t>ortho_rein</t>
+  </si>
+  <si>
     <t>RIRE-1</t>
   </si>
   <si>
-    <t>MICROTEC</t>
-  </si>
-  <si>
-    <t>ortho_rein</t>
-  </si>
-  <si>
     <t>CARDIOSPACE</t>
   </si>
   <si>
+    <t>OXYREA</t>
+  </si>
+  <si>
+    <t>OBI</t>
+  </si>
+  <si>
     <t>HYPNOART</t>
   </si>
   <si>
-    <t>OXYREA</t>
-  </si>
-  <si>
-    <t>OBI</t>
+    <t>GAME-D2</t>
   </si>
   <si>
     <t>TEMIS</t>
@@ -776,249 +799,254 @@
     <t>Barrett</t>
   </si>
   <si>
+    <t>VASO-AM</t>
+  </si>
+  <si>
     <t>NEURODIAB1</t>
   </si>
   <si>
-    <t>VASO-AM</t>
-  </si>
-  <si>
-    <t>GAME-D2</t>
+    <t>GOSSER</t>
   </si>
   <si>
     <t>CareSSE</t>
   </si>
   <si>
+    <t>SARTORIUS</t>
+  </si>
+  <si>
+    <t>AD-IDEA</t>
+  </si>
+  <si>
+    <t>NAPfem</t>
+  </si>
+  <si>
+    <t>TACIDOU</t>
+  </si>
+  <si>
+    <t>SIMHeR</t>
+  </si>
+  <si>
     <t>ToRRéa</t>
   </si>
   <si>
-    <t>SARTORIUS</t>
-  </si>
-  <si>
-    <t>SIMHeR</t>
-  </si>
-  <si>
-    <t>TACIDOU</t>
-  </si>
-  <si>
-    <t>NAPfem</t>
-  </si>
-  <si>
-    <t>GOSSER</t>
-  </si>
-  <si>
-    <t>AD-IDEA</t>
+    <t>PREPARE</t>
   </si>
   <si>
     <t>TRAAP</t>
   </si>
   <si>
+    <t>FirstAMOS</t>
+  </si>
+  <si>
+    <t>COSIMH</t>
+  </si>
+  <si>
+    <t>GOCAPXE</t>
+  </si>
+  <si>
     <t>PROPRIO-FOOT</t>
   </si>
   <si>
-    <t>GOCAPXE</t>
-  </si>
-  <si>
     <t>pre-TAPIOCA</t>
   </si>
   <si>
-    <t>COSIMH</t>
-  </si>
-  <si>
-    <t>FirstAMOS</t>
-  </si>
-  <si>
-    <t>PREPARE</t>
-  </si>
-  <si>
     <t>PREHUNT</t>
   </si>
   <si>
+    <t>SOMNO-BRS</t>
+  </si>
+  <si>
+    <t>VICTORIA</t>
+  </si>
+  <si>
     <t>ORI2</t>
   </si>
   <si>
-    <t>VICTORIA</t>
-  </si>
-  <si>
-    <t>SOMNO-BRS</t>
-  </si>
-  <si>
     <t>PEPPER</t>
   </si>
   <si>
+    <t>ACCUMULATION</t>
+  </si>
+  <si>
+    <t>VEINEX</t>
+  </si>
+  <si>
+    <t>MONS</t>
+  </si>
+  <si>
+    <t>PETRUS</t>
+  </si>
+  <si>
     <t>LAV</t>
   </si>
   <si>
     <t>BIOR</t>
   </si>
   <si>
-    <t>ACCUMULATION</t>
-  </si>
-  <si>
-    <t>VEINEX</t>
-  </si>
-  <si>
-    <t>PETRUS</t>
-  </si>
-  <si>
     <t>HOME-PE</t>
   </si>
   <si>
-    <t>MONS</t>
+    <t>IMPROVE</t>
+  </si>
+  <si>
+    <t>First-BLINDOS</t>
+  </si>
+  <si>
+    <t>CERVO1</t>
+  </si>
+  <si>
+    <t>AzyMR</t>
+  </si>
+  <si>
+    <t>SALTY-TURTLE</t>
+  </si>
+  <si>
+    <t>MitoCardioFer</t>
   </si>
   <si>
     <t>SCHOTT</t>
   </si>
   <si>
-    <t>CERVO1</t>
-  </si>
-  <si>
-    <t>SALTY-TURTLE</t>
+    <t>HOME-CoV</t>
+  </si>
+  <si>
+    <t>MIDRID</t>
   </si>
   <si>
     <t>MITOPSY</t>
   </si>
   <si>
-    <t>MitoCardioFer</t>
-  </si>
-  <si>
-    <t>First-BLINDOS</t>
-  </si>
-  <si>
-    <t>IMPROVE</t>
-  </si>
-  <si>
-    <t>HOME-CoV</t>
-  </si>
-  <si>
-    <t>AzyMR</t>
-  </si>
-  <si>
-    <t>MIDRID</t>
-  </si>
-  <si>
     <t>ACTRAMAT-D</t>
   </si>
   <si>
     <t>EMI HiPo</t>
   </si>
   <si>
+    <t>CDSII</t>
+  </si>
+  <si>
     <t>DELTA</t>
   </si>
   <si>
-    <t>CDSII</t>
+    <t>Taïso-Park</t>
   </si>
   <si>
     <t>SAPHIR</t>
   </si>
   <si>
-    <t>Taïso-Park</t>
-  </si>
-  <si>
     <t>PIRAAT</t>
   </si>
   <si>
+    <t>DOKTORBRAU</t>
+  </si>
+  <si>
+    <t>CAUSED</t>
+  </si>
+  <si>
+    <t>CASTING</t>
+  </si>
+  <si>
+    <t>RACO</t>
+  </si>
+  <si>
     <t>VELVET</t>
   </si>
   <si>
+    <t>COMIX-R</t>
+  </si>
+  <si>
+    <t>TDAH-DRM</t>
+  </si>
+  <si>
     <t>MacroSAS</t>
   </si>
   <si>
-    <t>RACO</t>
-  </si>
-  <si>
-    <t>DOKTORBRAU</t>
-  </si>
-  <si>
     <t>DOUCREA</t>
   </si>
   <si>
-    <t>COMIX-R</t>
-  </si>
-  <si>
     <t>First-SEDAN</t>
   </si>
   <si>
-    <t>TDAH-DRM</t>
-  </si>
-  <si>
-    <t>CAUSED</t>
-  </si>
-  <si>
-    <t>CASTING</t>
+    <t>EXODYS</t>
+  </si>
+  <si>
+    <t>MENABREA</t>
+  </si>
+  <si>
+    <t>SIM-SAM</t>
+  </si>
+  <si>
+    <t>PABLOS</t>
+  </si>
+  <si>
+    <t>AutoSelenium</t>
+  </si>
+  <si>
+    <t>eCARE</t>
+  </si>
+  <si>
+    <t>ALLERGORAL</t>
+  </si>
+  <si>
+    <t>TEMPUS</t>
   </si>
   <si>
     <t>COLONIA</t>
   </si>
   <si>
-    <t>TEMPUS</t>
-  </si>
-  <si>
-    <t>eCARE</t>
-  </si>
-  <si>
-    <t>MENABREA</t>
-  </si>
-  <si>
-    <t>AutoSelenium</t>
-  </si>
-  <si>
-    <t>ALLERGORAL</t>
-  </si>
-  <si>
-    <t>EXODYS</t>
-  </si>
-  <si>
-    <t>PABLOS</t>
+    <t>CETOREIN</t>
+  </si>
+  <si>
+    <t>PATCH-MMG</t>
   </si>
   <si>
     <t>CluPPFeN</t>
   </si>
   <si>
+    <t>Echo-Os</t>
+  </si>
+  <si>
     <t>ConFIRM</t>
   </si>
   <si>
-    <t>CETOREIN</t>
+    <t>STOUT</t>
   </si>
   <si>
     <t>BioScoreSMP</t>
-  </si>
-  <si>
-    <t>EPO-ICU-FS</t>
   </si>
   <si>
     <t>CoVitTrial 
  CoVitTrial</t>
   </si>
   <si>
+    <t>EPO-ICU-FS</t>
+  </si>
+  <si>
     <t>IOXSOR 
  IOXSOR</t>
   </si>
   <si>
-    <t>LEUCOPRO® 
- LEUCOPRO®</t>
-  </si>
-  <si>
     <t>DYVA-AAGG</t>
   </si>
   <si>
     <t>AGIR</t>
   </si>
   <si>
+    <t>LiRoPep</t>
+  </si>
+  <si>
     <t>DasaCBF</t>
   </si>
   <si>
-    <t>LiRoPep</t>
-  </si>
-  <si>
     <t>DRUG</t>
   </si>
   <si>
+    <t>DEVICE</t>
+  </si>
+  <si>
     <t>PROCEDURE</t>
   </si>
   <si>
-    <t>DEVICE</t>
-  </si>
-  <si>
     <t>OTHER</t>
   </si>
   <si>
@@ -1028,16 +1056,19 @@
     <t>GENETIC</t>
   </si>
   <si>
+    <t>BEHAVIORAL</t>
+  </si>
+  <si>
     <t>RADIATION</t>
   </si>
   <si>
-    <t>BEHAVIORAL</t>
+    <t>DIAGNOSTIC_TEST</t>
   </si>
   <si>
     <t>BIOLOGICAL</t>
   </si>
   <si>
-    <t>DIAGNOSTIC_TEST</t>
+    <t>DRUG (presumed)</t>
   </si>
 </sst>
 </file>
@@ -1395,7 +1426,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I103"/>
+  <dimension ref="A1:I106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1441,13 +1472,13 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="I2" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1461,13 +1492,16 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G3" t="s">
-        <v>139</v>
+        <v>143</v>
+      </c>
+      <c r="H3" t="s">
+        <v>243</v>
       </c>
       <c r="I3" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1481,16 +1515,13 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G4" t="s">
-        <v>140</v>
-      </c>
-      <c r="H4" t="s">
-        <v>236</v>
+        <v>144</v>
       </c>
       <c r="I4" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1504,13 +1535,13 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G5" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I5" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1524,13 +1555,13 @@
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I6" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1544,16 +1575,16 @@
         <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H7" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="I7" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1567,16 +1598,16 @@
         <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G8" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H8" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="I8" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1590,16 +1621,16 @@
         <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G9" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="H9" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="I9" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1613,145 +1644,148 @@
         <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G10" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="I10" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>125</v>
+        <v>129</v>
+      </c>
+      <c r="G11" t="s">
+        <v>151</v>
       </c>
       <c r="H11" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="I11" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>125</v>
-      </c>
-      <c r="G12" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="H12" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="I12" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G13" t="s">
-        <v>148</v>
-      </c>
-      <c r="H13" t="s">
-        <v>242</v>
+        <v>152</v>
       </c>
       <c r="I13" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
       </c>
+      <c r="D14" t="s">
+        <v>117</v>
+      </c>
       <c r="F14" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G14" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="H14" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="I14" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G15" t="s">
-        <v>150</v>
+        <v>154</v>
+      </c>
+      <c r="H15" t="s">
+        <v>250</v>
       </c>
       <c r="I15" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
         <v>31</v>
       </c>
       <c r="F16" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G16" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="H16" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="I16" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1765,16 +1799,16 @@
         <v>32</v>
       </c>
       <c r="F17" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G17" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="H17" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="I17" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1788,16 +1822,16 @@
         <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G18" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="H18" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="I18" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1811,13 +1845,16 @@
         <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>127</v>
+        <v>131</v>
+      </c>
+      <c r="G19" t="s">
+        <v>158</v>
       </c>
       <c r="H19" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="I19" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1831,16 +1868,16 @@
         <v>35</v>
       </c>
       <c r="F20" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G20" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="H20" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="I20" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1854,16 +1891,13 @@
         <v>36</v>
       </c>
       <c r="F21" t="s">
-        <v>127</v>
-      </c>
-      <c r="G21" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="H21" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="I21" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1877,39 +1911,39 @@
         <v>37</v>
       </c>
       <c r="F22" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G22" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="H22" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="I22" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C23" t="s">
         <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G23" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="H23" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="I23" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1923,16 +1957,16 @@
         <v>39</v>
       </c>
       <c r="F24" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G24" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H24" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="I24" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1946,39 +1980,39 @@
         <v>40</v>
       </c>
       <c r="F25" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G25" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H25" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="I25" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C26" t="s">
         <v>41</v>
       </c>
       <c r="F26" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G26" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H26" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="I26" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1992,16 +2026,16 @@
         <v>42</v>
       </c>
       <c r="F27" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G27" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H27" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="I27" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2015,16 +2049,16 @@
         <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G28" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H28" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="I28" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2038,180 +2072,180 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G29" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="H29" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="I29" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C30" t="s">
         <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G30" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H30" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="I30" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C31" t="s">
         <v>46</v>
       </c>
       <c r="F31" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G31" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="H31" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="I31" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C32" t="s">
         <v>47</v>
       </c>
       <c r="F32" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G32" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H32" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="I32" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C33" t="s">
         <v>48</v>
       </c>
       <c r="F33" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G33" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H33" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="I33" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C34" t="s">
         <v>49</v>
       </c>
       <c r="F34" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G34" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H34" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="I34" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C35" t="s">
         <v>50</v>
       </c>
-      <c r="D35" t="s">
-        <v>113</v>
-      </c>
       <c r="F35" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G35" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H35" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="I35" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C36" t="s">
         <v>51</v>
       </c>
+      <c r="D36" t="s">
+        <v>118</v>
+      </c>
       <c r="F36" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G36" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H36" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="I36" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2225,16 +2259,16 @@
         <v>52</v>
       </c>
       <c r="F37" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G37" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H37" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="I37" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2248,16 +2282,13 @@
         <v>53</v>
       </c>
       <c r="F38" t="s">
-        <v>130</v>
-      </c>
-      <c r="G38" t="s">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="H38" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="I38" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2271,13 +2302,16 @@
         <v>54</v>
       </c>
       <c r="F39" t="s">
-        <v>130</v>
+        <v>134</v>
+      </c>
+      <c r="G39" t="s">
+        <v>176</v>
       </c>
       <c r="H39" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="I39" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2291,16 +2325,16 @@
         <v>55</v>
       </c>
       <c r="F40" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G40" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="H40" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="I40" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2314,16 +2348,16 @@
         <v>56</v>
       </c>
       <c r="F41" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G41" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="H41" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="I41" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2337,36 +2371,36 @@
         <v>57</v>
       </c>
       <c r="F42" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="H42" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="I42" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C43" t="s">
         <v>58</v>
       </c>
       <c r="F43" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G43" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="H43" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="I43" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2380,39 +2414,39 @@
         <v>59</v>
       </c>
       <c r="F44" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G44" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H44" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="I44" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C45" t="s">
         <v>60</v>
       </c>
       <c r="F45" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G45" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H45" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="I45" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2426,39 +2460,39 @@
         <v>61</v>
       </c>
       <c r="F46" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G46" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H46" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="I46" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C47" t="s">
         <v>62</v>
       </c>
       <c r="F47" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G47" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H47" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="I47" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2472,39 +2506,39 @@
         <v>63</v>
       </c>
       <c r="F48" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G48" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H48" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="I48" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C49" t="s">
         <v>64</v>
       </c>
       <c r="F49" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G49" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="H49" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="I49" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2518,62 +2552,62 @@
         <v>65</v>
       </c>
       <c r="F50" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G50" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="H50" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="I50" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C51" t="s">
         <v>66</v>
       </c>
       <c r="F51" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G51" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="H51" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="I51" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C52" t="s">
         <v>67</v>
       </c>
       <c r="F52" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G52" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H52" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="I52" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2587,82 +2621,88 @@
         <v>68</v>
       </c>
       <c r="F53" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G53" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H53" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="I53" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>16</v>
-      </c>
-      <c r="D54" t="s">
-        <v>114</v>
+        <v>13</v>
+      </c>
+      <c r="C54" t="s">
+        <v>69</v>
       </c>
       <c r="F54" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G54" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H54" t="s">
-        <v>282</v>
+        <v>289</v>
+      </c>
+      <c r="I54" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C55" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="D55" t="s">
+        <v>119</v>
       </c>
       <c r="F55" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G55" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="H55" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="I55" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C56" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F56" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G56" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="H56" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="I56" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2673,19 +2713,19 @@
         <v>13</v>
       </c>
       <c r="C57" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F57" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G57" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="H57" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="I57" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2696,68 +2736,65 @@
         <v>13</v>
       </c>
       <c r="C58" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F58" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G58" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H58" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="I58" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B59" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C59" t="s">
-        <v>73</v>
-      </c>
-      <c r="D59" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="F59" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G59" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="H59" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="I59" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C60" t="s">
-        <v>74</v>
+        <v>16</v>
+      </c>
+      <c r="D60" t="s">
+        <v>120</v>
       </c>
       <c r="F60" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G60" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H60" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="I60" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2771,16 +2808,16 @@
         <v>75</v>
       </c>
       <c r="F61" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G61" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="H61" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="I61" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2794,16 +2831,16 @@
         <v>76</v>
       </c>
       <c r="F62" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G62" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="H62" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="I62" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2817,16 +2854,16 @@
         <v>77</v>
       </c>
       <c r="F63" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G63" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H63" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="I63" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2840,16 +2877,16 @@
         <v>78</v>
       </c>
       <c r="F64" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G64" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H64" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="I64" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2863,16 +2900,16 @@
         <v>79</v>
       </c>
       <c r="F65" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G65" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="H65" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="I65" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2886,16 +2923,16 @@
         <v>80</v>
       </c>
       <c r="F66" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G66" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H66" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="I66" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2909,13 +2946,16 @@
         <v>81</v>
       </c>
       <c r="F67" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G67" t="s">
-        <v>199</v>
+        <v>203</v>
+      </c>
+      <c r="H67" t="s">
+        <v>302</v>
       </c>
       <c r="I67" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2929,16 +2969,16 @@
         <v>82</v>
       </c>
       <c r="F68" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G68" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="H68" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="I68" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2952,16 +2992,13 @@
         <v>83</v>
       </c>
       <c r="F69" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G69" t="s">
-        <v>201</v>
-      </c>
-      <c r="H69" t="s">
-        <v>296</v>
+        <v>205</v>
       </c>
       <c r="I69" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2975,16 +3012,16 @@
         <v>84</v>
       </c>
       <c r="F70" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G70" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H70" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="I70" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2998,13 +3035,13 @@
         <v>85</v>
       </c>
       <c r="F71" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G71" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="I71" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3018,16 +3055,16 @@
         <v>86</v>
       </c>
       <c r="F72" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G72" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="H72" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="I72" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -3041,16 +3078,16 @@
         <v>87</v>
       </c>
       <c r="F73" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G73" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H73" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="I73" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -3064,39 +3101,39 @@
         <v>88</v>
       </c>
       <c r="F74" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G74" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H74" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="I74" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C75" t="s">
         <v>89</v>
       </c>
       <c r="F75" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G75" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="H75" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="I75" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3110,16 +3147,16 @@
         <v>90</v>
       </c>
       <c r="F76" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G76" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H76" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="I76" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3133,16 +3170,16 @@
         <v>91</v>
       </c>
       <c r="F77" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G77" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="H77" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="I77" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3156,16 +3193,16 @@
         <v>92</v>
       </c>
       <c r="F78" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G78" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H78" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="I78" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3179,16 +3216,16 @@
         <v>93</v>
       </c>
       <c r="F79" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G79" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="H79" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="I79" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3202,16 +3239,16 @@
         <v>94</v>
       </c>
       <c r="F80" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G80" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="H80" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="I80" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -3225,39 +3262,39 @@
         <v>95</v>
       </c>
       <c r="F81" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G81" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="H81" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="I81" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B82" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C82" t="s">
         <v>96</v>
       </c>
       <c r="F82" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G82" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="H82" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="I82" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3271,16 +3308,16 @@
         <v>97</v>
       </c>
       <c r="F83" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G83" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H83" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="I83" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -3294,16 +3331,16 @@
         <v>98</v>
       </c>
       <c r="F84" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G84" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="H84" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="I84" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -3317,16 +3354,16 @@
         <v>99</v>
       </c>
       <c r="F85" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G85" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="H85" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="I85" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3340,16 +3377,16 @@
         <v>100</v>
       </c>
       <c r="F86" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G86" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="H86" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="I86" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3363,16 +3400,16 @@
         <v>101</v>
       </c>
       <c r="F87" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G87" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H87" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="I87" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3386,16 +3423,16 @@
         <v>102</v>
       </c>
       <c r="F88" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G88" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="H88" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="I88" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3409,16 +3446,16 @@
         <v>103</v>
       </c>
       <c r="F89" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G89" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="H89" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="I89" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3432,16 +3469,16 @@
         <v>104</v>
       </c>
       <c r="F90" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G90" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="H90" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="I90" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3455,13 +3492,16 @@
         <v>105</v>
       </c>
       <c r="F91" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G91" t="s">
-        <v>223</v>
+        <v>227</v>
+      </c>
+      <c r="H91" t="s">
+        <v>324</v>
       </c>
       <c r="I91" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3475,39 +3515,39 @@
         <v>106</v>
       </c>
       <c r="F92" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G92" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="H92" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="I92" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B93" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C93" t="s">
         <v>107</v>
       </c>
       <c r="F93" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G93" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="H93" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="I93" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3521,16 +3561,13 @@
         <v>108</v>
       </c>
       <c r="F94" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G94" t="s">
-        <v>226</v>
-      </c>
-      <c r="H94" t="s">
-        <v>319</v>
+        <v>230</v>
       </c>
       <c r="I94" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3544,16 +3581,16 @@
         <v>109</v>
       </c>
       <c r="F95" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G95" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="H95" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="I95" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3563,48 +3600,66 @@
       <c r="B96" t="s">
         <v>13</v>
       </c>
-      <c r="D96" t="s">
-        <v>116</v>
+      <c r="C96" t="s">
+        <v>110</v>
+      </c>
+      <c r="F96" t="s">
+        <v>141</v>
       </c>
       <c r="G96" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="H96" t="s">
-        <v>321</v>
+        <v>328</v>
+      </c>
+      <c r="I96" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B97" t="s">
-        <v>13</v>
-      </c>
-      <c r="D97" t="s">
-        <v>117</v>
+        <v>15</v>
+      </c>
+      <c r="C97" t="s">
+        <v>111</v>
+      </c>
+      <c r="F97" t="s">
+        <v>141</v>
       </c>
       <c r="G97" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="H97" t="s">
-        <v>322</v>
+        <v>329</v>
+      </c>
+      <c r="I97" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B98" t="s">
-        <v>13</v>
-      </c>
-      <c r="D98" t="s">
-        <v>118</v>
+        <v>15</v>
+      </c>
+      <c r="C98" t="s">
+        <v>112</v>
+      </c>
+      <c r="F98" t="s">
+        <v>141</v>
       </c>
       <c r="G98" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H98" t="s">
-        <v>323</v>
+        <v>330</v>
+      </c>
+      <c r="I98" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -3614,14 +3669,20 @@
       <c r="B99" t="s">
         <v>13</v>
       </c>
-      <c r="D99" t="s">
-        <v>119</v>
+      <c r="C99" t="s">
+        <v>113</v>
+      </c>
+      <c r="F99" t="s">
+        <v>141</v>
       </c>
       <c r="G99" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="H99" t="s">
-        <v>324</v>
+        <v>331</v>
+      </c>
+      <c r="I99" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -3632,33 +3693,36 @@
         <v>13</v>
       </c>
       <c r="D100" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G100" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="H100" t="s">
-        <v>325</v>
+        <v>332</v>
+      </c>
+      <c r="I100" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B101" t="s">
-        <v>14</v>
-      </c>
-      <c r="C101" t="s">
-        <v>110</v>
+        <v>13</v>
+      </c>
+      <c r="D101" t="s">
+        <v>122</v>
       </c>
       <c r="G101" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="H101" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="I101" t="s">
-        <v>330</v>
+        <v>349</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -3668,17 +3732,17 @@
       <c r="B102" t="s">
         <v>13</v>
       </c>
-      <c r="C102" t="s">
-        <v>111</v>
+      <c r="D102" t="s">
+        <v>123</v>
       </c>
       <c r="G102" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="H102" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="I102" t="s">
-        <v>329</v>
+        <v>349</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -3688,17 +3752,77 @@
       <c r="B103" t="s">
         <v>13</v>
       </c>
-      <c r="C103" t="s">
-        <v>112</v>
+      <c r="D103" t="s">
+        <v>124</v>
       </c>
       <c r="G103" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="H103" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="I103" t="s">
-        <v>329</v>
+        <v>349</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" t="s">
+        <v>10</v>
+      </c>
+      <c r="B104" t="s">
+        <v>14</v>
+      </c>
+      <c r="C104" t="s">
+        <v>114</v>
+      </c>
+      <c r="G104" t="s">
+        <v>240</v>
+      </c>
+      <c r="H104" t="s">
+        <v>336</v>
+      </c>
+      <c r="I104" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" t="s">
+        <v>9</v>
+      </c>
+      <c r="B105" t="s">
+        <v>13</v>
+      </c>
+      <c r="C105" t="s">
+        <v>115</v>
+      </c>
+      <c r="G105" t="s">
+        <v>241</v>
+      </c>
+      <c r="H105" t="s">
+        <v>337</v>
+      </c>
+      <c r="I105" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" t="s">
+        <v>9</v>
+      </c>
+      <c r="B106" t="s">
+        <v>13</v>
+      </c>
+      <c r="C106" t="s">
+        <v>116</v>
+      </c>
+      <c r="G106" t="s">
+        <v>242</v>
+      </c>
+      <c r="H106" t="s">
+        <v>338</v>
+      </c>
+      <c r="I106" t="s">
+        <v>339</v>
       </c>
     </row>
   </sheetData>
